--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_20_37.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_20_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1490963.796400422</v>
+        <v>1486951.993668325</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6432656.960140341</v>
+        <v>6432656.960140343</v>
       </c>
     </row>
     <row r="9">
@@ -1369,25 +1369,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
-        <v>142.9775754080166</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>398.3085625684984</v>
       </c>
       <c r="H11" t="n">
-        <v>274.5392124624013</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1426,10 +1426,10 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>255.612391572116</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>156.7357996457289</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>60.76258397304348</v>
+        <v>60.76258397304346</v>
       </c>
       <c r="T12" t="n">
         <v>136.1757056744559</v>
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.264309024945</v>
+        <v>86.89174271429242</v>
       </c>
       <c r="C13" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>26.51105219961412</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1542,10 +1542,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>163.7030512222169</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>134.4334047779237</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>6.489944470648588</v>
+        <v>6.489944470648567</v>
       </c>
       <c r="S13" t="n">
         <v>152.8999186087154</v>
@@ -1606,25 +1606,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>419.0596946068497</v>
+        <v>170.6136998605367</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>398.3085625684984</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>274.5392124624013</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>58.04236988161366</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>255.612391572116</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>110.6418459349627</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="15">
@@ -1767,16 +1767,16 @@
         <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
-        <v>170.2528374898731</v>
+        <v>131.2882405440963</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>21.35479149030298</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1785,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>71.96559361603954</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>152.8999186087154</v>
       </c>
       <c r="T16" t="n">
         <v>237.097464026797</v>
@@ -1858,10 +1858,10 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>398.3085625684984</v>
       </c>
       <c r="H17" t="n">
-        <v>274.5392124624013</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1900,19 +1900,19 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>255.612391572116</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>392.4274362026566</v>
+        <v>30.34726213545123</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y17" t="n">
-        <v>314.9634806553642</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="18">
@@ -2001,22 +2001,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>54.91577576731561</v>
       </c>
       <c r="F19" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>163.7030512222169</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>134.4334047779237</v>
@@ -2052,16 +2052,16 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>152.8999186087154</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>237.097464026797</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>81.2715458605761</v>
+        <v>277.3339849899809</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
         <v>272.1038797892121</v>
@@ -2083,22 +2083,22 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>221.5631145981762</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>398.3085625684984</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>274.5392124624013</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>58.04236988161366</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>255.612391572116</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>353.914520725013</v>
+        <v>108.1576499723612</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2238,13 +2238,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2253,10 +2253,10 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>27.10901907881436</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>134.4334047779237</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>152.8999186087154</v>
+        <v>15.75775879579305</v>
       </c>
       <c r="T22" t="n">
         <v>237.097464026797</v>
@@ -2301,7 +2301,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
         <v>240.1382575886529</v>
@@ -2326,16 +2326,16 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>421.717170453621</v>
+        <v>79.19710485565726</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>398.3085625684984</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>274.5392124624013</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,16 +2368,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>58.04236988161366</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>210.0177446442483</v>
       </c>
       <c r="U23" t="n">
-        <v>98.80179746124308</v>
+        <v>255.612391572116</v>
       </c>
       <c r="V23" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>392.4274362026566</v>
@@ -2386,7 +2386,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y23" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>60.76258397304347</v>
+        <v>60.76258397304346</v>
       </c>
       <c r="T24" t="n">
         <v>136.1757056744559</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>6.489944470648581</v>
+        <v>6.48994447064862</v>
       </c>
       <c r="S25" t="n">
         <v>152.8999186087154</v>
@@ -2532,7 +2532,7 @@
         <v>237.097464026797</v>
       </c>
       <c r="U25" t="n">
-        <v>277.333984989981</v>
+        <v>277.3339849899809</v>
       </c>
       <c r="V25" t="n">
         <v>278.8943527180514</v>
@@ -2554,25 +2554,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>422.6317226868329</v>
+        <v>135.6480317172402</v>
       </c>
       <c r="D26" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E26" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>58.89939790848561</v>
+        <v>398.3085625684984</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>274.5392124624013</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>58.04236988161366</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>210.0177446442483</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>255.612391572116</v>
       </c>
       <c r="V26" t="n">
         <v>353.914520725013</v>
@@ -2620,7 +2620,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y26" t="n">
         <v>401.2838973446586</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>6.48994447064907</v>
+        <v>6.489944470648574</v>
       </c>
       <c r="S28" t="n">
         <v>152.8999186087154</v>
@@ -2769,7 +2769,7 @@
         <v>237.097464026797</v>
       </c>
       <c r="U28" t="n">
-        <v>277.3339849899801</v>
+        <v>277.3339849899809</v>
       </c>
       <c r="V28" t="n">
         <v>278.8943527180514</v>
@@ -2791,10 +2791,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>415.6498806486147</v>
+        <v>162.2802901214332</v>
       </c>
       <c r="C29" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -2842,16 +2842,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>58.04236988161366</v>
       </c>
       <c r="T29" t="n">
-        <v>201.5857136089771</v>
+        <v>210.0177446442483</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>255.612391572116</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W29" t="n">
         <v>392.4274362026566</v>
@@ -3034,13 +3034,13 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>66.03213660298829</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>421.717170453621</v>
+        <v>162.2802901214332</v>
       </c>
       <c r="F32" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>398.3085625684984</v>
@@ -3088,10 +3088,10 @@
         <v>255.612391572116</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X32" t="n">
         <v>407.6027988439302</v>
@@ -3189,7 +3189,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
-        <v>170.2528374898732</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
         <v>161.683605144497</v>
@@ -3268,7 +3268,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -3277,13 +3277,13 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>396.2878832268006</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>274.5392124624013</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,22 +3316,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>29.24654646307497</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>255.612391572116</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W35" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X35" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>401.2838973446586</v>
@@ -3423,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>161.683605144497</v>
@@ -3438,13 +3438,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>163.7030512222169</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>129.2916839128944</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>71.96559361603954</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,19 +3474,19 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>152.8999186087154</v>
+        <v>48.04517637743915</v>
       </c>
       <c r="T37" t="n">
         <v>237.097464026797</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>277.3339849899809</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X37" t="n">
         <v>240.1382575886529</v>
@@ -3502,10 +3502,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>115.2446013314485</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>419.0596946068497</v>
@@ -3517,7 +3517,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>398.3085625684984</v>
       </c>
       <c r="H38" t="n">
         <v>274.5392124624013</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>58.04236988161366</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>81.52539156816852</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -3666,7 +3666,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3678,10 +3678,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>134.4334047779237</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>63.22457913921546</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>6.489944470648574</v>
       </c>
       <c r="S40" t="n">
-        <v>9.267814325145327</v>
+        <v>152.8999186087154</v>
       </c>
       <c r="T40" t="n">
         <v>237.097464026797</v>
@@ -3720,7 +3720,7 @@
         <v>277.3339849899809</v>
       </c>
       <c r="V40" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>272.1038797892121</v>
@@ -3729,7 +3729,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>341.2208481213476</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -3748,16 +3748,16 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>398.3085625684984</v>
       </c>
       <c r="H41" t="n">
-        <v>33.13643347244697</v>
+        <v>274.5392124624013</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,22 +3790,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>58.04236988161366</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>255.612391572116</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3900,7 +3900,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3909,16 +3909,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
-        <v>100.3999320820482</v>
+        <v>105.5523369083852</v>
       </c>
       <c r="G43" t="n">
-        <v>163.7030512222169</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>134.4334047779237</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>71.96559361603954</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,16 +3948,16 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>152.8999186087154</v>
       </c>
       <c r="T43" t="n">
-        <v>237.097464026797</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>277.3339849899809</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
         <v>272.1038797892121</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3994,7 +3994,7 @@
         <v>398.3085625684984</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>274.5392124624013</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4030,7 +4030,7 @@
         <v>58.04236988161366</v>
       </c>
       <c r="T44" t="n">
-        <v>210.0177446442483</v>
+        <v>210.0177446442482</v>
       </c>
       <c r="U44" t="n">
         <v>255.612391572116</v>
@@ -4039,10 +4039,10 @@
         <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
-        <v>382.5198714935429</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>131.2031034770993</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4140,22 +4140,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>163.7030512222169</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>134.4334047779237</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>71.96559361603954</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,22 +4182,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>6.489944470648574</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>9.267814325144876</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>237.097464026797</v>
       </c>
       <c r="U46" t="n">
         <v>277.3339849899809</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
-        <v>107.5216767805021</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
         <v>240.1382575886529</v>
@@ -5017,43 +5017,43 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1717.922550502993</v>
+        <v>1721.257590332054</v>
       </c>
       <c r="C11" t="n">
-        <v>1717.922550502993</v>
+        <v>1294.356860345354</v>
       </c>
       <c r="D11" t="n">
-        <v>1573.500757161562</v>
+        <v>871.0642395303546</v>
       </c>
       <c r="E11" t="n">
-        <v>1147.523817309419</v>
+        <v>445.0872996782122</v>
       </c>
       <c r="F11" t="n">
-        <v>722.3996354988195</v>
+        <v>445.0872996782122</v>
       </c>
       <c r="G11" t="n">
-        <v>320.0677541164978</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="H11" t="n">
-        <v>42.75541829589046</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="I11" t="n">
-        <v>84.39494262103619</v>
+        <v>84.39494262103585</v>
       </c>
       <c r="J11" t="n">
-        <v>222.2360596072045</v>
+        <v>222.2360596072043</v>
       </c>
       <c r="K11" t="n">
-        <v>437.0691715610002</v>
+        <v>437.0691715610001</v>
       </c>
       <c r="L11" t="n">
-        <v>709.5851800848321</v>
+        <v>709.585180084832</v>
       </c>
       <c r="M11" t="n">
         <v>1017.958031365649</v>
       </c>
       <c r="N11" t="n">
-        <v>1332.07042163564</v>
+        <v>1332.070421635641</v>
       </c>
       <c r="O11" t="n">
         <v>1626.510864636164</v>
@@ -5062,31 +5062,31 @@
         <v>1872.202557977126</v>
       </c>
       <c r="Q11" t="n">
-        <v>2048.878716272599</v>
+        <v>2048.8787162726</v>
       </c>
       <c r="R11" t="n">
-        <v>2137.770914794523</v>
+        <v>2137.770914794524</v>
       </c>
       <c r="S11" t="n">
-        <v>2137.770914794523</v>
+        <v>2137.770914794524</v>
       </c>
       <c r="T11" t="n">
-        <v>2137.770914794523</v>
+        <v>2137.770914794524</v>
       </c>
       <c r="U11" t="n">
-        <v>2137.770914794523</v>
+        <v>1879.576579873195</v>
       </c>
       <c r="V11" t="n">
-        <v>2137.770914794523</v>
+        <v>1721.257590332054</v>
       </c>
       <c r="W11" t="n">
-        <v>2137.770914794523</v>
+        <v>1721.257590332054</v>
       </c>
       <c r="X11" t="n">
-        <v>2137.770914794523</v>
+        <v>1721.257590332054</v>
       </c>
       <c r="Y11" t="n">
-        <v>2137.770914794523</v>
+        <v>1721.257590332054</v>
       </c>
     </row>
     <row r="12">
@@ -5096,10 +5096,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>598.4330068530408</v>
+        <v>598.4330068530409</v>
       </c>
       <c r="C12" t="n">
-        <v>480.9271033705455</v>
+        <v>480.9271033705456</v>
       </c>
       <c r="D12" t="n">
         <v>377.0871448858306</v>
@@ -5111,34 +5111,34 @@
         <v>178.739380841672</v>
       </c>
       <c r="G12" t="n">
-        <v>85.75954558772926</v>
+        <v>85.75954558772929</v>
       </c>
       <c r="H12" t="n">
-        <v>42.75541829589046</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="I12" t="n">
-        <v>62.98439029745212</v>
+        <v>62.98439029745217</v>
       </c>
       <c r="J12" t="n">
-        <v>142.0237151377161</v>
+        <v>404.465909142654</v>
       </c>
       <c r="K12" t="n">
-        <v>289.8146695059643</v>
+        <v>552.2568635109022</v>
       </c>
       <c r="L12" t="n">
-        <v>496.0652591283639</v>
+        <v>758.5074531333021</v>
       </c>
       <c r="M12" t="n">
-        <v>739.8954600838651</v>
+        <v>1002.337654088804</v>
       </c>
       <c r="N12" t="n">
-        <v>992.5205257180605</v>
+        <v>1254.962719722999</v>
       </c>
       <c r="O12" t="n">
-        <v>1220.012389740919</v>
+        <v>1482.454583745858</v>
       </c>
       <c r="P12" t="n">
-        <v>1399.453043391741</v>
+        <v>1661.89523739668</v>
       </c>
       <c r="Q12" t="n">
         <v>1773.7346928875</v>
@@ -5162,10 +5162,10 @@
         <v>1030.530251153148</v>
       </c>
       <c r="X12" t="n">
-        <v>867.0529049198111</v>
+        <v>867.0529049198112</v>
       </c>
       <c r="Y12" t="n">
-        <v>727.3600162731035</v>
+        <v>727.3600162731036</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>241.5068220226453</v>
+        <v>343.903353649568</v>
       </c>
       <c r="C13" t="n">
-        <v>69.53425890156129</v>
+        <v>343.903353649568</v>
       </c>
       <c r="D13" t="n">
-        <v>42.75541829589046</v>
+        <v>343.903353649568</v>
       </c>
       <c r="E13" t="n">
-        <v>42.75541829589046</v>
+        <v>343.903353649568</v>
       </c>
       <c r="F13" t="n">
-        <v>42.75541829589046</v>
+        <v>343.903353649568</v>
       </c>
       <c r="G13" t="n">
-        <v>42.75541829589046</v>
+        <v>178.5467362533892</v>
       </c>
       <c r="H13" t="n">
-        <v>42.75541829589046</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="I13" t="n">
-        <v>42.75541829589046</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="J13" t="n">
-        <v>84.71320548484803</v>
+        <v>162.634922133069</v>
       </c>
       <c r="K13" t="n">
-        <v>166.4811349991141</v>
+        <v>491.6854607613571</v>
       </c>
       <c r="L13" t="n">
-        <v>652.364518782327</v>
+        <v>977.5688445445701</v>
       </c>
       <c r="M13" t="n">
-        <v>1181.462820193971</v>
+        <v>1093.544903181524</v>
       </c>
       <c r="N13" t="n">
-        <v>1693.990998177372</v>
+        <v>1208.040158323044</v>
       </c>
       <c r="O13" t="n">
-        <v>2003.682813232012</v>
+        <v>1539.553111280806</v>
       </c>
       <c r="P13" t="n">
-        <v>2088.252358880158</v>
+        <v>1936.87886150226</v>
       </c>
       <c r="Q13" t="n">
-        <v>2137.770914794523</v>
+        <v>2137.770914794524</v>
       </c>
       <c r="R13" t="n">
-        <v>2131.215415329221</v>
+        <v>2131.215415329222</v>
       </c>
       <c r="S13" t="n">
         <v>1976.771053098196</v>
       </c>
       <c r="T13" t="n">
-        <v>1737.27866519234</v>
+        <v>1737.278665192341</v>
       </c>
       <c r="U13" t="n">
-        <v>1457.143326818622</v>
+        <v>1457.143326818623</v>
       </c>
       <c r="V13" t="n">
-        <v>1175.431859426651</v>
+        <v>1175.431859426652</v>
       </c>
       <c r="W13" t="n">
-        <v>900.5794555991638</v>
+        <v>900.5794555991647</v>
       </c>
       <c r="X13" t="n">
-        <v>658.0155590449689</v>
+        <v>658.0155590449698</v>
       </c>
       <c r="Y13" t="n">
-        <v>431.6727907347109</v>
+        <v>431.6727907347118</v>
       </c>
     </row>
     <row r="14">
@@ -5254,37 +5254,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>892.9487690975901</v>
+        <v>1320.713645917161</v>
       </c>
       <c r="C14" t="n">
-        <v>466.0480391108902</v>
+        <v>1320.713645917161</v>
       </c>
       <c r="D14" t="n">
-        <v>42.75541829589046</v>
+        <v>1148.376575350962</v>
       </c>
       <c r="E14" t="n">
-        <v>42.75541829589046</v>
+        <v>722.3996354988195</v>
       </c>
       <c r="F14" t="n">
-        <v>42.75541829589046</v>
+        <v>722.3996354988195</v>
       </c>
       <c r="G14" t="n">
-        <v>42.75541829589046</v>
+        <v>320.0677541164978</v>
       </c>
       <c r="H14" t="n">
         <v>42.75541829589046</v>
       </c>
       <c r="I14" t="n">
-        <v>84.39494262103608</v>
+        <v>84.39494262103631</v>
       </c>
       <c r="J14" t="n">
-        <v>222.2360596072042</v>
+        <v>222.2360596072047</v>
       </c>
       <c r="K14" t="n">
-        <v>437.069171561</v>
+        <v>437.0691715610005</v>
       </c>
       <c r="L14" t="n">
-        <v>709.5851800848318</v>
+        <v>709.5851800848322</v>
       </c>
       <c r="M14" t="n">
         <v>1017.958031365649</v>
@@ -5305,25 +5305,25 @@
         <v>2137.770914794523</v>
       </c>
       <c r="S14" t="n">
-        <v>2079.142258348449</v>
+        <v>2137.770914794523</v>
       </c>
       <c r="T14" t="n">
-        <v>2079.142258348449</v>
+        <v>2137.770914794523</v>
       </c>
       <c r="U14" t="n">
-        <v>1820.947923427119</v>
+        <v>2137.770914794523</v>
       </c>
       <c r="V14" t="n">
-        <v>1709.188483088773</v>
+        <v>2137.770914794523</v>
       </c>
       <c r="W14" t="n">
-        <v>1312.79713338912</v>
+        <v>2137.770914794523</v>
       </c>
       <c r="X14" t="n">
-        <v>1312.79713338912</v>
+        <v>1726.05091596227</v>
       </c>
       <c r="Y14" t="n">
-        <v>1312.79713338912</v>
+        <v>1320.713645917161</v>
       </c>
     </row>
     <row r="15">
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>402.5066837189724</v>
+        <v>248.0623214879469</v>
       </c>
       <c r="C16" t="n">
-        <v>230.5341205978884</v>
+        <v>115.4479370999708</v>
       </c>
       <c r="D16" t="n">
-        <v>230.5341205978884</v>
+        <v>115.4479370999708</v>
       </c>
       <c r="E16" t="n">
-        <v>64.32591475074196</v>
+        <v>115.4479370999708</v>
       </c>
       <c r="F16" t="n">
-        <v>42.75541829589046</v>
+        <v>115.4479370999708</v>
       </c>
       <c r="G16" t="n">
-        <v>42.75541829589046</v>
+        <v>115.4479370999708</v>
       </c>
       <c r="H16" t="n">
-        <v>42.75541829589046</v>
+        <v>115.4479370999708</v>
       </c>
       <c r="I16" t="n">
         <v>42.75541829589046</v>
@@ -5439,22 +5439,22 @@
         <v>162.6349221330689</v>
       </c>
       <c r="K16" t="n">
-        <v>437.3516163034807</v>
+        <v>491.6854607613571</v>
       </c>
       <c r="L16" t="n">
-        <v>546.8461064955287</v>
+        <v>828.9254504309979</v>
       </c>
       <c r="M16" t="n">
-        <v>1075.944407907173</v>
+        <v>944.9015090679513</v>
       </c>
       <c r="N16" t="n">
-        <v>1588.472585890574</v>
+        <v>1059.396764209471</v>
       </c>
       <c r="O16" t="n">
-        <v>1690.926608658704</v>
+        <v>1539.553111280805</v>
       </c>
       <c r="P16" t="n">
-        <v>2088.252358880158</v>
+        <v>1936.878861502259</v>
       </c>
       <c r="Q16" t="n">
         <v>2137.770914794523</v>
@@ -5463,25 +5463,25 @@
         <v>2137.770914794523</v>
       </c>
       <c r="S16" t="n">
-        <v>2137.770914794523</v>
+        <v>1983.326552563497</v>
       </c>
       <c r="T16" t="n">
-        <v>1898.278526888667</v>
+        <v>1743.834164657642</v>
       </c>
       <c r="U16" t="n">
-        <v>1618.143188514949</v>
+        <v>1463.698826283924</v>
       </c>
       <c r="V16" t="n">
-        <v>1336.431721122978</v>
+        <v>1181.987358891952</v>
       </c>
       <c r="W16" t="n">
-        <v>1061.579317295491</v>
+        <v>907.1349550644654</v>
       </c>
       <c r="X16" t="n">
-        <v>819.015420741296</v>
+        <v>664.5710585102705</v>
       </c>
       <c r="Y16" t="n">
-        <v>592.672652431038</v>
+        <v>438.2282902000126</v>
       </c>
     </row>
     <row r="17">
@@ -5491,40 +5491,40 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>745.1919359270976</v>
+        <v>870.211481488812</v>
       </c>
       <c r="C17" t="n">
-        <v>745.1919359270976</v>
+        <v>870.211481488812</v>
       </c>
       <c r="D17" t="n">
-        <v>745.1919359270976</v>
+        <v>870.211481488812</v>
       </c>
       <c r="E17" t="n">
-        <v>745.1919359270976</v>
+        <v>870.211481488812</v>
       </c>
       <c r="F17" t="n">
-        <v>320.0677541164978</v>
+        <v>445.0872996782122</v>
       </c>
       <c r="G17" t="n">
-        <v>320.0677541164978</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="H17" t="n">
-        <v>42.75541829589047</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="I17" t="n">
-        <v>84.39494262103653</v>
+        <v>84.39494262103608</v>
       </c>
       <c r="J17" t="n">
-        <v>222.2360596072047</v>
+        <v>222.2360596072045</v>
       </c>
       <c r="K17" t="n">
-        <v>437.0691715610004</v>
+        <v>437.0691715610002</v>
       </c>
       <c r="L17" t="n">
-        <v>709.5851800848322</v>
+        <v>709.585180084832</v>
       </c>
       <c r="M17" t="n">
-        <v>1017.95803136565</v>
+        <v>1017.958031365649</v>
       </c>
       <c r="N17" t="n">
         <v>1332.070421635641</v>
@@ -5533,34 +5533,34 @@
         <v>1626.510864636165</v>
       </c>
       <c r="P17" t="n">
-        <v>1872.202557977126</v>
+        <v>1872.202557977127</v>
       </c>
       <c r="Q17" t="n">
         <v>2048.8787162726</v>
       </c>
       <c r="R17" t="n">
-        <v>2137.770914794523</v>
+        <v>2137.770914794524</v>
       </c>
       <c r="S17" t="n">
-        <v>2137.770914794523</v>
+        <v>2137.770914794524</v>
       </c>
       <c r="T17" t="n">
-        <v>2137.770914794523</v>
+        <v>2137.770914794524</v>
       </c>
       <c r="U17" t="n">
-        <v>1879.576579873194</v>
+        <v>2137.770914794524</v>
       </c>
       <c r="V17" t="n">
-        <v>1879.576579873194</v>
+        <v>2137.770914794524</v>
       </c>
       <c r="W17" t="n">
-        <v>1483.185230173541</v>
+        <v>2107.117114657704</v>
       </c>
       <c r="X17" t="n">
-        <v>1483.185230173541</v>
+        <v>1695.397115825452</v>
       </c>
       <c r="Y17" t="n">
-        <v>1165.040300218628</v>
+        <v>1290.059845780342</v>
       </c>
     </row>
     <row r="18">
@@ -5588,34 +5588,34 @@
         <v>85.75954558772929</v>
       </c>
       <c r="H18" t="n">
-        <v>42.75541829589047</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="I18" t="n">
-        <v>86.44169614186399</v>
+        <v>62.98439029745215</v>
       </c>
       <c r="J18" t="n">
-        <v>165.481020982128</v>
+        <v>404.4659091426543</v>
       </c>
       <c r="K18" t="n">
-        <v>313.2719753503762</v>
+        <v>552.2568635109025</v>
       </c>
       <c r="L18" t="n">
-        <v>653.0519528483964</v>
+        <v>758.5074531333022</v>
       </c>
       <c r="M18" t="n">
-        <v>896.8821538038977</v>
+        <v>1002.337654088804</v>
       </c>
       <c r="N18" t="n">
-        <v>1149.507219438093</v>
+        <v>1254.962719722999</v>
       </c>
       <c r="O18" t="n">
-        <v>1376.999083460952</v>
+        <v>1482.454583745858</v>
       </c>
       <c r="P18" t="n">
-        <v>1556.439737111774</v>
+        <v>1661.89523739668</v>
       </c>
       <c r="Q18" t="n">
-        <v>1668.279192602594</v>
+        <v>1773.7346928875</v>
       </c>
       <c r="R18" t="n">
         <v>1815.649874842555</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>917.9826253994637</v>
+        <v>641.999071624829</v>
       </c>
       <c r="C19" t="n">
-        <v>917.9826253994637</v>
+        <v>470.0265085037449</v>
       </c>
       <c r="D19" t="n">
-        <v>754.6658525262344</v>
+        <v>306.7097356305156</v>
       </c>
       <c r="E19" t="n">
-        <v>588.4576466790879</v>
+        <v>251.2392550574696</v>
       </c>
       <c r="F19" t="n">
-        <v>416.5958724536483</v>
+        <v>251.2392550574696</v>
       </c>
       <c r="G19" t="n">
         <v>251.2392550574696</v>
@@ -5670,55 +5670,55 @@
         <v>115.4479370999708</v>
       </c>
       <c r="I19" t="n">
-        <v>42.75541829589047</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="J19" t="n">
-        <v>162.634922133069</v>
+        <v>84.71320548484809</v>
       </c>
       <c r="K19" t="n">
-        <v>491.6854607613571</v>
+        <v>413.7637441131362</v>
       </c>
       <c r="L19" t="n">
-        <v>977.5688445445701</v>
+        <v>899.647127896349</v>
       </c>
       <c r="M19" t="n">
-        <v>1322.603833371155</v>
+        <v>1015.623186533302</v>
       </c>
       <c r="N19" t="n">
-        <v>1437.099088512675</v>
+        <v>1210.770261587371</v>
       </c>
       <c r="O19" t="n">
-        <v>1539.553111280805</v>
+        <v>1690.926608658705</v>
       </c>
       <c r="P19" t="n">
-        <v>1936.878861502259</v>
+        <v>2088.252358880159</v>
       </c>
       <c r="Q19" t="n">
-        <v>2137.770914794523</v>
+        <v>2137.770914794524</v>
       </c>
       <c r="R19" t="n">
-        <v>2137.770914794523</v>
+        <v>2137.770914794524</v>
       </c>
       <c r="S19" t="n">
-        <v>1983.326552563498</v>
+        <v>2137.770914794524</v>
       </c>
       <c r="T19" t="n">
-        <v>1743.834164657642</v>
+        <v>2137.770914794524</v>
       </c>
       <c r="U19" t="n">
-        <v>1661.741694091404</v>
+        <v>1857.635576420806</v>
       </c>
       <c r="V19" t="n">
-        <v>1661.741694091404</v>
+        <v>1575.924109028834</v>
       </c>
       <c r="W19" t="n">
-        <v>1386.889290263917</v>
+        <v>1301.071705201347</v>
       </c>
       <c r="X19" t="n">
-        <v>1144.325393709722</v>
+        <v>1058.507808647153</v>
       </c>
       <c r="Y19" t="n">
-        <v>917.9826253994637</v>
+        <v>832.1650403368947</v>
       </c>
     </row>
     <row r="20">
@@ -5728,43 +5728,43 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1116.749894954334</v>
+        <v>1573.500757161562</v>
       </c>
       <c r="C20" t="n">
-        <v>689.8491649676339</v>
+        <v>1573.500757161562</v>
       </c>
       <c r="D20" t="n">
-        <v>266.5565441526342</v>
+        <v>1573.500757161562</v>
       </c>
       <c r="E20" t="n">
-        <v>42.75541829589047</v>
+        <v>1147.523817309419</v>
       </c>
       <c r="F20" t="n">
-        <v>42.75541829589047</v>
+        <v>722.3996354988195</v>
       </c>
       <c r="G20" t="n">
-        <v>42.75541829589047</v>
+        <v>320.0677541164978</v>
       </c>
       <c r="H20" t="n">
-        <v>42.75541829589047</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="I20" t="n">
-        <v>84.39494262103631</v>
+        <v>84.39494262103563</v>
       </c>
       <c r="J20" t="n">
-        <v>222.2360596072047</v>
+        <v>222.236059607204</v>
       </c>
       <c r="K20" t="n">
-        <v>437.0691715610005</v>
+        <v>437.0691715609998</v>
       </c>
       <c r="L20" t="n">
-        <v>709.5851800848322</v>
+        <v>709.5851800848316</v>
       </c>
       <c r="M20" t="n">
         <v>1017.958031365649</v>
       </c>
       <c r="N20" t="n">
-        <v>1332.070421635641</v>
+        <v>1332.07042163564</v>
       </c>
       <c r="O20" t="n">
         <v>1626.510864636164</v>
@@ -5773,31 +5773,31 @@
         <v>1872.202557977126</v>
       </c>
       <c r="Q20" t="n">
-        <v>2048.8787162726</v>
+        <v>2048.878716272599</v>
       </c>
       <c r="R20" t="n">
         <v>2137.770914794523</v>
       </c>
       <c r="S20" t="n">
-        <v>2137.770914794523</v>
+        <v>2079.142258348449</v>
       </c>
       <c r="T20" t="n">
-        <v>2137.770914794523</v>
+        <v>2079.142258348449</v>
       </c>
       <c r="U20" t="n">
-        <v>1879.576579873194</v>
+        <v>2079.142258348449</v>
       </c>
       <c r="V20" t="n">
-        <v>1522.087164999444</v>
+        <v>1969.892106861215</v>
       </c>
       <c r="W20" t="n">
-        <v>1522.087164999444</v>
+        <v>1573.500757161562</v>
       </c>
       <c r="X20" t="n">
-        <v>1522.087164999444</v>
+        <v>1573.500757161562</v>
       </c>
       <c r="Y20" t="n">
-        <v>1116.749894954334</v>
+        <v>1573.500757161562</v>
       </c>
     </row>
     <row r="21">
@@ -5807,10 +5807,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>598.4330068530409</v>
+        <v>598.4330068530408</v>
       </c>
       <c r="C21" t="n">
-        <v>480.9271033705456</v>
+        <v>480.9271033705455</v>
       </c>
       <c r="D21" t="n">
         <v>377.0871448858306</v>
@@ -5822,37 +5822,37 @@
         <v>178.739380841672</v>
       </c>
       <c r="G21" t="n">
-        <v>85.75954558772929</v>
+        <v>85.75954558772926</v>
       </c>
       <c r="H21" t="n">
-        <v>42.75541829589047</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="I21" t="n">
-        <v>86.44169614186399</v>
+        <v>86.44169614186397</v>
       </c>
       <c r="J21" t="n">
-        <v>165.481020982128</v>
+        <v>299.0104088577483</v>
       </c>
       <c r="K21" t="n">
-        <v>313.2719753503762</v>
+        <v>446.8013632259966</v>
       </c>
       <c r="L21" t="n">
-        <v>519.5225649727761</v>
+        <v>653.0519528483964</v>
       </c>
       <c r="M21" t="n">
-        <v>763.3527659282774</v>
+        <v>896.8821538038977</v>
       </c>
       <c r="N21" t="n">
-        <v>1015.977831562473</v>
+        <v>1149.507219438093</v>
       </c>
       <c r="O21" t="n">
-        <v>1243.469695585332</v>
+        <v>1376.999083460952</v>
       </c>
       <c r="P21" t="n">
-        <v>1661.89523739668</v>
+        <v>1556.439737111774</v>
       </c>
       <c r="Q21" t="n">
-        <v>1773.7346928875</v>
+        <v>1668.279192602594</v>
       </c>
       <c r="R21" t="n">
         <v>1815.649874842555</v>
@@ -5873,10 +5873,10 @@
         <v>1030.530251153148</v>
       </c>
       <c r="X21" t="n">
-        <v>867.0529049198112</v>
+        <v>867.0529049198111</v>
       </c>
       <c r="Y21" t="n">
-        <v>727.3600162731036</v>
+        <v>727.3600162731035</v>
       </c>
     </row>
     <row r="22">
@@ -5886,43 +5886,43 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>713.0806940275</v>
+        <v>386.589755642414</v>
       </c>
       <c r="C22" t="n">
-        <v>541.108130906416</v>
+        <v>214.61719252133</v>
       </c>
       <c r="D22" t="n">
-        <v>377.7913580331867</v>
+        <v>214.61719252133</v>
       </c>
       <c r="E22" t="n">
-        <v>377.7913580331867</v>
+        <v>214.61719252133</v>
       </c>
       <c r="F22" t="n">
-        <v>205.9295838077472</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="G22" t="n">
-        <v>178.5467362533892</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="H22" t="n">
-        <v>42.75541829589047</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="I22" t="n">
-        <v>42.75541829589047</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="J22" t="n">
-        <v>84.71320548484807</v>
+        <v>84.71320548484806</v>
       </c>
       <c r="K22" t="n">
-        <v>166.4811349991142</v>
+        <v>413.7637441131362</v>
       </c>
       <c r="L22" t="n">
-        <v>275.9756251911622</v>
+        <v>899.6471278963492</v>
       </c>
       <c r="M22" t="n">
-        <v>805.0739266028068</v>
+        <v>1015.623186533303</v>
       </c>
       <c r="N22" t="n">
-        <v>1210.770261587371</v>
+        <v>1210.77026158737</v>
       </c>
       <c r="O22" t="n">
         <v>1690.926608658704</v>
@@ -5937,25 +5937,25 @@
         <v>2137.770914794523</v>
       </c>
       <c r="S22" t="n">
-        <v>1983.326552563498</v>
+        <v>2121.853986717964</v>
       </c>
       <c r="T22" t="n">
-        <v>1743.834164657642</v>
+        <v>1882.361598812109</v>
       </c>
       <c r="U22" t="n">
-        <v>1463.698826283924</v>
+        <v>1602.226260438391</v>
       </c>
       <c r="V22" t="n">
-        <v>1181.987358891953</v>
+        <v>1320.51479304642</v>
       </c>
       <c r="W22" t="n">
-        <v>1181.987358891953</v>
+        <v>1045.662389218933</v>
       </c>
       <c r="X22" t="n">
-        <v>939.423462337758</v>
+        <v>803.0984926647377</v>
       </c>
       <c r="Y22" t="n">
-        <v>713.0806940275</v>
+        <v>576.7557243544798</v>
       </c>
     </row>
     <row r="23">
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>912.9483609204043</v>
+        <v>1246.612713882966</v>
       </c>
       <c r="C23" t="n">
-        <v>486.0476309337044</v>
+        <v>819.711983896266</v>
       </c>
       <c r="D23" t="n">
-        <v>486.0476309337044</v>
+        <v>819.711983896266</v>
       </c>
       <c r="E23" t="n">
-        <v>60.07069108156195</v>
+        <v>739.714908284491</v>
       </c>
       <c r="F23" t="n">
-        <v>60.07069108156195</v>
+        <v>739.714908284491</v>
       </c>
       <c r="G23" t="n">
-        <v>60.07069108156195</v>
+        <v>337.3830269021693</v>
       </c>
       <c r="H23" t="n">
-        <v>60.07069108156195</v>
+        <v>60.07069108156194</v>
       </c>
       <c r="I23" t="n">
         <v>101.7102154067076</v>
@@ -5992,7 +5992,7 @@
         <v>631.2805511005022</v>
       </c>
       <c r="K23" t="n">
-        <v>846.1136630542979</v>
+        <v>846.1136630542981</v>
       </c>
       <c r="L23" t="n">
         <v>1118.62967157813</v>
@@ -6016,25 +6016,25 @@
         <v>3003.534554078097</v>
       </c>
       <c r="S23" t="n">
-        <v>3003.534554078097</v>
+        <v>2944.905897632023</v>
       </c>
       <c r="T23" t="n">
-        <v>3003.534554078097</v>
+        <v>2732.766761627731</v>
       </c>
       <c r="U23" t="n">
-        <v>2903.7347586627</v>
+        <v>2474.572426706402</v>
       </c>
       <c r="V23" t="n">
-        <v>2546.24534378895</v>
+        <v>2474.572426706402</v>
       </c>
       <c r="W23" t="n">
-        <v>2149.853994089297</v>
+        <v>2078.181077006749</v>
       </c>
       <c r="X23" t="n">
-        <v>1738.133995257044</v>
+        <v>1666.461078174496</v>
       </c>
       <c r="Y23" t="n">
-        <v>1332.796725211934</v>
+        <v>1666.461078174496</v>
       </c>
     </row>
     <row r="24">
@@ -6059,37 +6059,37 @@
         <v>196.0546536273434</v>
       </c>
       <c r="G24" t="n">
-        <v>103.0748183734008</v>
+        <v>103.0748183734007</v>
       </c>
       <c r="H24" t="n">
-        <v>60.07069108156195</v>
+        <v>60.07069108156194</v>
       </c>
       <c r="I24" t="n">
-        <v>80.29966308312362</v>
+        <v>103.7569689275355</v>
       </c>
       <c r="J24" t="n">
-        <v>159.3389879233876</v>
+        <v>182.7962937677995</v>
       </c>
       <c r="K24" t="n">
-        <v>307.1299422916359</v>
+        <v>330.5872481360477</v>
       </c>
       <c r="L24" t="n">
-        <v>513.3805319140356</v>
+        <v>536.8378377584474</v>
       </c>
       <c r="M24" t="n">
-        <v>757.210732869537</v>
+        <v>780.6680387139488</v>
       </c>
       <c r="N24" t="n">
-        <v>1009.835798503732</v>
+        <v>1033.293104348144</v>
       </c>
       <c r="O24" t="n">
-        <v>1499.76985653153</v>
+        <v>1394.314356246624</v>
       </c>
       <c r="P24" t="n">
-        <v>1679.210510182351</v>
+        <v>1573.755009897445</v>
       </c>
       <c r="Q24" t="n">
-        <v>1791.049965673171</v>
+        <v>1685.594465388265</v>
       </c>
       <c r="R24" t="n">
         <v>1832.965147628227</v>
@@ -6126,16 +6126,16 @@
         <v>1107.270461306219</v>
       </c>
       <c r="C25" t="n">
-        <v>935.2978981851351</v>
+        <v>935.2978981851352</v>
       </c>
       <c r="D25" t="n">
-        <v>771.9811253119058</v>
+        <v>771.9811253119059</v>
       </c>
       <c r="E25" t="n">
-        <v>605.7729194647593</v>
+        <v>605.7729194647594</v>
       </c>
       <c r="F25" t="n">
-        <v>433.9111452393197</v>
+        <v>433.9111452393198</v>
       </c>
       <c r="G25" t="n">
         <v>268.554527843141</v>
@@ -6144,7 +6144,7 @@
         <v>132.7632098856423</v>
       </c>
       <c r="I25" t="n">
-        <v>60.07069108156195</v>
+        <v>60.07069108156194</v>
       </c>
       <c r="J25" t="n">
         <v>179.9501949187404</v>
@@ -6171,7 +6171,7 @@
         <v>3003.534554078097</v>
       </c>
       <c r="R25" t="n">
-        <v>2996.979054612796</v>
+        <v>2996.979054612795</v>
       </c>
       <c r="S25" t="n">
         <v>2842.53469238177</v>
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1820.859504867706</v>
+        <v>1300.025742955289</v>
       </c>
       <c r="C26" t="n">
-        <v>1393.958774881007</v>
+        <v>1163.007529099491</v>
       </c>
       <c r="D26" t="n">
-        <v>970.6661540660068</v>
+        <v>739.714908284491</v>
       </c>
       <c r="E26" t="n">
-        <v>544.6892142138644</v>
+        <v>739.714908284491</v>
       </c>
       <c r="F26" t="n">
-        <v>119.5650324032646</v>
+        <v>739.714908284491</v>
       </c>
       <c r="G26" t="n">
-        <v>60.07069108156194</v>
+        <v>337.3830269021693</v>
       </c>
       <c r="H26" t="n">
         <v>60.07069108156194</v>
@@ -6226,52 +6226,52 @@
         <v>101.7102154067076</v>
       </c>
       <c r="J26" t="n">
-        <v>239.551332392876</v>
+        <v>631.2805511005022</v>
       </c>
       <c r="K26" t="n">
-        <v>454.3844443466718</v>
+        <v>846.1136630542981</v>
       </c>
       <c r="L26" t="n">
-        <v>726.9004528705036</v>
+        <v>1118.62967157813</v>
       </c>
       <c r="M26" t="n">
-        <v>1035.273304151321</v>
+        <v>1427.002522858947</v>
       </c>
       <c r="N26" t="n">
-        <v>1700.150952125847</v>
+        <v>1741.114913128938</v>
       </c>
       <c r="O26" t="n">
-        <v>1994.591395126371</v>
+        <v>2035.555356129462</v>
       </c>
       <c r="P26" t="n">
-        <v>2737.9661972607</v>
+        <v>2281.247049470424</v>
       </c>
       <c r="Q26" t="n">
-        <v>2914.642355556173</v>
+        <v>2762.403697278422</v>
       </c>
       <c r="R26" t="n">
         <v>3003.534554078097</v>
       </c>
       <c r="S26" t="n">
-        <v>3003.534554078097</v>
+        <v>2944.905897632023</v>
       </c>
       <c r="T26" t="n">
-        <v>3003.534554078097</v>
+        <v>2732.766761627731</v>
       </c>
       <c r="U26" t="n">
-        <v>3003.534554078097</v>
+        <v>2474.572426706402</v>
       </c>
       <c r="V26" t="n">
-        <v>2646.045139204346</v>
+        <v>2117.083011832651</v>
       </c>
       <c r="W26" t="n">
-        <v>2646.045139204346</v>
+        <v>2117.083011832651</v>
       </c>
       <c r="X26" t="n">
-        <v>2646.045139204346</v>
+        <v>1705.363013000398</v>
       </c>
       <c r="Y26" t="n">
-        <v>2240.707869159236</v>
+        <v>1300.025742955289</v>
       </c>
     </row>
     <row r="27">
@@ -6302,31 +6302,31 @@
         <v>60.07069108156194</v>
       </c>
       <c r="I27" t="n">
-        <v>80.29966308312362</v>
+        <v>103.7569689275355</v>
       </c>
       <c r="J27" t="n">
-        <v>159.3389879233877</v>
+        <v>316.3256816434198</v>
       </c>
       <c r="K27" t="n">
-        <v>307.1299422916359</v>
+        <v>464.116636011668</v>
       </c>
       <c r="L27" t="n">
-        <v>513.3805319140356</v>
+        <v>670.3672256340677</v>
       </c>
       <c r="M27" t="n">
-        <v>757.210732869537</v>
+        <v>914.1974265895691</v>
       </c>
       <c r="N27" t="n">
-        <v>1272.27799250867</v>
+        <v>1166.822492223765</v>
       </c>
       <c r="O27" t="n">
-        <v>1499.76985653153</v>
+        <v>1394.314356246624</v>
       </c>
       <c r="P27" t="n">
-        <v>1679.210510182351</v>
+        <v>1573.755009897445</v>
       </c>
       <c r="Q27" t="n">
-        <v>1791.049965673171</v>
+        <v>1685.594465388265</v>
       </c>
       <c r="R27" t="n">
         <v>1832.965147628227</v>
@@ -6411,10 +6411,10 @@
         <v>2996.979054612795</v>
       </c>
       <c r="S28" t="n">
-        <v>2842.534692381769</v>
+        <v>2842.53469238177</v>
       </c>
       <c r="T28" t="n">
-        <v>2603.042304475913</v>
+        <v>2603.042304475914</v>
       </c>
       <c r="U28" t="n">
         <v>2322.906966102196</v>
@@ -6439,7 +6439,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1166.615638271191</v>
+        <v>739.714908284491</v>
       </c>
       <c r="C29" t="n">
         <v>739.714908284491</v>
@@ -6463,25 +6463,25 @@
         <v>101.7102154067076</v>
       </c>
       <c r="J29" t="n">
-        <v>239.551332392876</v>
+        <v>631.2805511005022</v>
       </c>
       <c r="K29" t="n">
-        <v>454.3844443466718</v>
+        <v>846.1136630542981</v>
       </c>
       <c r="L29" t="n">
-        <v>726.9004528705036</v>
+        <v>1118.62967157813</v>
       </c>
       <c r="M29" t="n">
-        <v>1035.273304151321</v>
+        <v>1427.002522858947</v>
       </c>
       <c r="N29" t="n">
-        <v>1349.385694421312</v>
+        <v>1741.114913128938</v>
       </c>
       <c r="O29" t="n">
-        <v>1643.826137421835</v>
+        <v>2035.555356129462</v>
       </c>
       <c r="P29" t="n">
-        <v>2387.200939556164</v>
+        <v>2737.9661972607</v>
       </c>
       <c r="Q29" t="n">
         <v>2914.642355556173</v>
@@ -6490,25 +6490,25 @@
         <v>3003.534554078097</v>
       </c>
       <c r="S29" t="n">
-        <v>3003.534554078097</v>
+        <v>2944.905897632023</v>
       </c>
       <c r="T29" t="n">
-        <v>2799.912621139736</v>
+        <v>2732.766761627731</v>
       </c>
       <c r="U29" t="n">
-        <v>2799.912621139736</v>
+        <v>2474.572426706402</v>
       </c>
       <c r="V29" t="n">
-        <v>2799.912621139736</v>
+        <v>2117.083011832651</v>
       </c>
       <c r="W29" t="n">
-        <v>2403.521271440083</v>
+        <v>1720.691662132998</v>
       </c>
       <c r="X29" t="n">
-        <v>1991.80127260783</v>
+        <v>1308.971663300745</v>
       </c>
       <c r="Y29" t="n">
-        <v>1586.464002562721</v>
+        <v>903.6343932556357</v>
       </c>
     </row>
     <row r="30">
@@ -6539,31 +6539,31 @@
         <v>60.07069108156194</v>
       </c>
       <c r="I30" t="n">
-        <v>80.29966308312362</v>
+        <v>103.7569689275355</v>
       </c>
       <c r="J30" t="n">
-        <v>159.3389879233877</v>
+        <v>316.3256816434198</v>
       </c>
       <c r="K30" t="n">
-        <v>569.5721362965738</v>
+        <v>464.116636011668</v>
       </c>
       <c r="L30" t="n">
-        <v>775.8227259189736</v>
+        <v>670.3672256340677</v>
       </c>
       <c r="M30" t="n">
-        <v>1019.652926874475</v>
+        <v>914.1974265895691</v>
       </c>
       <c r="N30" t="n">
-        <v>1272.27799250867</v>
+        <v>1166.822492223765</v>
       </c>
       <c r="O30" t="n">
-        <v>1499.76985653153</v>
+        <v>1394.314356246624</v>
       </c>
       <c r="P30" t="n">
-        <v>1679.210510182351</v>
+        <v>1573.755009897445</v>
       </c>
       <c r="Q30" t="n">
-        <v>1791.049965673171</v>
+        <v>1685.594465388265</v>
       </c>
       <c r="R30" t="n">
         <v>1832.965147628227</v>
@@ -6600,19 +6600,19 @@
         <v>1107.270461306219</v>
       </c>
       <c r="C31" t="n">
-        <v>935.2978981851351</v>
+        <v>935.2978981851346</v>
       </c>
       <c r="D31" t="n">
-        <v>771.9811253119058</v>
+        <v>771.9811253119053</v>
       </c>
       <c r="E31" t="n">
-        <v>605.7729194647593</v>
+        <v>605.7729194647588</v>
       </c>
       <c r="F31" t="n">
-        <v>433.9111452393198</v>
+        <v>433.9111452393194</v>
       </c>
       <c r="G31" t="n">
-        <v>268.554527843141</v>
+        <v>268.5545278431409</v>
       </c>
       <c r="H31" t="n">
         <v>132.7632098856423</v>
@@ -6630,43 +6630,43 @@
         <v>916.9624006820206</v>
       </c>
       <c r="M31" t="n">
-        <v>1446.473939781796</v>
+        <v>1412.632225509645</v>
       </c>
       <c r="N31" t="n">
-        <v>1959.002117765196</v>
+        <v>1925.160403493045</v>
       </c>
       <c r="O31" t="n">
-        <v>2439.15846483653</v>
+        <v>2405.316750564379</v>
       </c>
       <c r="P31" t="n">
-        <v>2836.484215057983</v>
+        <v>2802.642500785833</v>
       </c>
       <c r="Q31" t="n">
         <v>3003.534554078097</v>
       </c>
       <c r="R31" t="n">
-        <v>2996.979054612796</v>
+        <v>2996.979054612795</v>
       </c>
       <c r="S31" t="n">
-        <v>2842.53469238177</v>
+        <v>2842.534692381769</v>
       </c>
       <c r="T31" t="n">
         <v>2603.042304475914</v>
       </c>
       <c r="U31" t="n">
-        <v>2322.906966102196</v>
+        <v>2322.906966102195</v>
       </c>
       <c r="V31" t="n">
-        <v>2041.195498710225</v>
+        <v>2041.195498710224</v>
       </c>
       <c r="W31" t="n">
-        <v>1766.343094882738</v>
+        <v>1766.343094882737</v>
       </c>
       <c r="X31" t="n">
-        <v>1523.779198328543</v>
+        <v>1523.779198328542</v>
       </c>
       <c r="Y31" t="n">
-        <v>1297.436430018285</v>
+        <v>1297.436430018284</v>
       </c>
     </row>
     <row r="32">
@@ -6676,16 +6676,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1657.51515782904</v>
+        <v>903.6343932556357</v>
       </c>
       <c r="C32" t="n">
-        <v>1657.51515782904</v>
+        <v>903.6343932556357</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.816029947233</v>
+        <v>903.6343932556357</v>
       </c>
       <c r="E32" t="n">
-        <v>1164.839090095091</v>
+        <v>739.714908284491</v>
       </c>
       <c r="F32" t="n">
         <v>739.714908284491</v>
@@ -6736,16 +6736,16 @@
         <v>2474.572426706402</v>
       </c>
       <c r="V32" t="n">
-        <v>2474.572426706402</v>
+        <v>2117.083011832651</v>
       </c>
       <c r="W32" t="n">
-        <v>2474.572426706402</v>
+        <v>1720.691662132998</v>
       </c>
       <c r="X32" t="n">
-        <v>2062.852427874149</v>
+        <v>1308.971663300745</v>
       </c>
       <c r="Y32" t="n">
-        <v>1657.51515782904</v>
+        <v>903.6343932556357</v>
       </c>
     </row>
     <row r="33">
@@ -6779,10 +6779,10 @@
         <v>103.7569689275355</v>
       </c>
       <c r="J33" t="n">
-        <v>182.7962937677995</v>
+        <v>316.3256816434198</v>
       </c>
       <c r="K33" t="n">
-        <v>330.5872481360477</v>
+        <v>464.116636011668</v>
       </c>
       <c r="L33" t="n">
         <v>670.3672256340677</v>
@@ -6867,16 +6867,16 @@
         <v>994.8841173302415</v>
       </c>
       <c r="M34" t="n">
-        <v>1524.395656430017</v>
+        <v>1412.632225509645</v>
       </c>
       <c r="N34" t="n">
-        <v>2036.923834413417</v>
+        <v>1925.160403493045</v>
       </c>
       <c r="O34" t="n">
-        <v>2517.08018148475</v>
+        <v>2405.316750564379</v>
       </c>
       <c r="P34" t="n">
-        <v>2914.405931706204</v>
+        <v>2802.642500785833</v>
       </c>
       <c r="Q34" t="n">
         <v>3003.534554078097</v>
@@ -6913,37 +6913,37 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>894.7803300931902</v>
+        <v>720.3585452546803</v>
       </c>
       <c r="C35" t="n">
-        <v>467.8796001064903</v>
+        <v>720.3585452546803</v>
       </c>
       <c r="D35" t="n">
-        <v>467.8796001064903</v>
+        <v>720.3585452546803</v>
       </c>
       <c r="E35" t="n">
-        <v>467.8796001064903</v>
+        <v>720.3585452546803</v>
       </c>
       <c r="F35" t="n">
-        <v>42.75541829589048</v>
+        <v>720.3585452546803</v>
       </c>
       <c r="G35" t="n">
-        <v>42.75541829589048</v>
+        <v>320.0677541164978</v>
       </c>
       <c r="H35" t="n">
-        <v>42.75541829589048</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="I35" t="n">
-        <v>84.39494262103617</v>
+        <v>84.39494262103614</v>
       </c>
       <c r="J35" t="n">
         <v>222.2360596072045</v>
       </c>
       <c r="K35" t="n">
-        <v>437.0691715610003</v>
+        <v>437.0691715610004</v>
       </c>
       <c r="L35" t="n">
-        <v>709.585180084832</v>
+        <v>709.5851800848321</v>
       </c>
       <c r="M35" t="n">
         <v>1017.958031365649</v>
@@ -6961,28 +6961,28 @@
         <v>2048.878716272599</v>
       </c>
       <c r="R35" t="n">
-        <v>2137.770914794524</v>
+        <v>2137.770914794523</v>
       </c>
       <c r="S35" t="n">
-        <v>2108.228948670206</v>
+        <v>2137.770914794523</v>
       </c>
       <c r="T35" t="n">
-        <v>2108.228948670206</v>
+        <v>2137.770914794523</v>
       </c>
       <c r="U35" t="n">
-        <v>2108.228948670206</v>
+        <v>1879.576579873194</v>
       </c>
       <c r="V35" t="n">
-        <v>2108.228948670206</v>
+        <v>1522.087164999443</v>
       </c>
       <c r="W35" t="n">
-        <v>1711.837598970553</v>
+        <v>1125.69581529979</v>
       </c>
       <c r="X35" t="n">
-        <v>1300.1176001383</v>
+        <v>1125.69581529979</v>
       </c>
       <c r="Y35" t="n">
-        <v>894.7803300931902</v>
+        <v>720.3585452546803</v>
       </c>
     </row>
     <row r="36">
@@ -6992,10 +6992,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>598.4330068530409</v>
+        <v>598.4330068530408</v>
       </c>
       <c r="C36" t="n">
-        <v>480.9271033705456</v>
+        <v>480.9271033705455</v>
       </c>
       <c r="D36" t="n">
         <v>377.0871448858306</v>
@@ -7007,37 +7007,37 @@
         <v>178.739380841672</v>
       </c>
       <c r="G36" t="n">
-        <v>85.75954558772929</v>
+        <v>85.75954558772926</v>
       </c>
       <c r="H36" t="n">
-        <v>42.75541829589048</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="I36" t="n">
-        <v>62.98439029745215</v>
+        <v>86.44169614186397</v>
       </c>
       <c r="J36" t="n">
-        <v>404.4659091426543</v>
+        <v>299.0104088577484</v>
       </c>
       <c r="K36" t="n">
-        <v>552.2568635109025</v>
+        <v>446.8013632259966</v>
       </c>
       <c r="L36" t="n">
-        <v>758.5074531333022</v>
+        <v>653.0519528483964</v>
       </c>
       <c r="M36" t="n">
-        <v>1002.337654088804</v>
+        <v>896.8821538038977</v>
       </c>
       <c r="N36" t="n">
-        <v>1254.962719722999</v>
+        <v>1149.507219438093</v>
       </c>
       <c r="O36" t="n">
-        <v>1482.454583745858</v>
+        <v>1376.999083460952</v>
       </c>
       <c r="P36" t="n">
-        <v>1661.89523739668</v>
+        <v>1556.439737111774</v>
       </c>
       <c r="Q36" t="n">
-        <v>1773.7346928875</v>
+        <v>1668.279192602594</v>
       </c>
       <c r="R36" t="n">
         <v>1815.649874842555</v>
@@ -7058,10 +7058,10 @@
         <v>1030.530251153148</v>
       </c>
       <c r="X36" t="n">
-        <v>867.0529049198112</v>
+        <v>867.0529049198111</v>
       </c>
       <c r="Y36" t="n">
-        <v>727.3600162731036</v>
+        <v>727.3600162731035</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1084.761531081124</v>
+        <v>544.1421712417058</v>
       </c>
       <c r="C37" t="n">
-        <v>912.7889679600401</v>
+        <v>544.1421712417058</v>
       </c>
       <c r="D37" t="n">
-        <v>749.4721950868108</v>
+        <v>380.8253983684765</v>
       </c>
       <c r="E37" t="n">
-        <v>583.2639892396643</v>
+        <v>214.61719252133</v>
       </c>
       <c r="F37" t="n">
-        <v>411.4022150142247</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="G37" t="n">
-        <v>246.0455976180459</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="H37" t="n">
-        <v>115.4479370999708</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="I37" t="n">
-        <v>42.75541829589048</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="J37" t="n">
-        <v>84.71320548484809</v>
+        <v>84.71320548484806</v>
       </c>
       <c r="K37" t="n">
-        <v>166.4811349991142</v>
+        <v>166.4811349991141</v>
       </c>
       <c r="L37" t="n">
-        <v>652.3645187823271</v>
+        <v>582.2660249670167</v>
       </c>
       <c r="M37" t="n">
-        <v>1181.462820193972</v>
+        <v>698.2420836039702</v>
       </c>
       <c r="N37" t="n">
-        <v>1693.990998177372</v>
+        <v>1210.77026158737</v>
       </c>
       <c r="O37" t="n">
-        <v>2003.682813232012</v>
+        <v>1690.926608658704</v>
       </c>
       <c r="P37" t="n">
-        <v>2088.252358880159</v>
+        <v>2088.252358880158</v>
       </c>
       <c r="Q37" t="n">
-        <v>2137.770914794524</v>
+        <v>2137.770914794523</v>
       </c>
       <c r="R37" t="n">
-        <v>2137.770914794524</v>
+        <v>2137.770914794523</v>
       </c>
       <c r="S37" t="n">
-        <v>1983.326552563498</v>
+        <v>2089.24043360519</v>
       </c>
       <c r="T37" t="n">
-        <v>1743.834164657643</v>
+        <v>1849.748045699335</v>
       </c>
       <c r="U37" t="n">
-        <v>1743.834164657643</v>
+        <v>1569.612707325617</v>
       </c>
       <c r="V37" t="n">
-        <v>1743.834164657643</v>
+        <v>1287.901239933646</v>
       </c>
       <c r="W37" t="n">
-        <v>1743.834164657643</v>
+        <v>1013.048836106159</v>
       </c>
       <c r="X37" t="n">
-        <v>1501.270268103448</v>
+        <v>770.4849395519637</v>
       </c>
       <c r="Y37" t="n">
-        <v>1274.92749979319</v>
+        <v>544.1421712417058</v>
       </c>
     </row>
     <row r="38">
@@ -7150,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2021.362226580939</v>
+        <v>1996.793377976562</v>
       </c>
       <c r="C38" t="n">
-        <v>1594.46149659424</v>
+        <v>1996.793377976562</v>
       </c>
       <c r="D38" t="n">
-        <v>1171.16887577924</v>
+        <v>1573.500757161562</v>
       </c>
       <c r="E38" t="n">
-        <v>745.1919359270976</v>
+        <v>1147.523817309419</v>
       </c>
       <c r="F38" t="n">
-        <v>320.0677541164978</v>
+        <v>722.3996354988195</v>
       </c>
       <c r="G38" t="n">
         <v>320.0677541164978</v>
       </c>
       <c r="H38" t="n">
-        <v>42.75541829589048</v>
+        <v>42.75541829589047</v>
       </c>
       <c r="I38" t="n">
-        <v>84.39494262103608</v>
+        <v>84.39494262103618</v>
       </c>
       <c r="J38" t="n">
-        <v>222.2360596072047</v>
+        <v>222.2360596072045</v>
       </c>
       <c r="K38" t="n">
-        <v>437.0691715610005</v>
+        <v>437.0691715610004</v>
       </c>
       <c r="L38" t="n">
         <v>709.5851800848322</v>
@@ -7192,34 +7192,34 @@
         <v>1626.510864636164</v>
       </c>
       <c r="P38" t="n">
-        <v>1872.202557977127</v>
+        <v>1872.202557977126</v>
       </c>
       <c r="Q38" t="n">
         <v>2048.8787162726</v>
       </c>
       <c r="R38" t="n">
-        <v>2137.770914794524</v>
+        <v>2137.770914794523</v>
       </c>
       <c r="S38" t="n">
-        <v>2137.770914794524</v>
+        <v>2079.142258348449</v>
       </c>
       <c r="T38" t="n">
-        <v>2137.770914794524</v>
+        <v>2079.142258348449</v>
       </c>
       <c r="U38" t="n">
-        <v>2137.770914794524</v>
+        <v>1996.793377976562</v>
       </c>
       <c r="V38" t="n">
-        <v>2137.770914794524</v>
+        <v>1996.793377976562</v>
       </c>
       <c r="W38" t="n">
-        <v>2137.770914794524</v>
+        <v>1996.793377976562</v>
       </c>
       <c r="X38" t="n">
-        <v>2137.770914794524</v>
+        <v>1996.793377976562</v>
       </c>
       <c r="Y38" t="n">
-        <v>2137.770914794524</v>
+        <v>1996.793377976562</v>
       </c>
     </row>
     <row r="39">
@@ -7247,34 +7247,34 @@
         <v>85.75954558772929</v>
       </c>
       <c r="H39" t="n">
-        <v>42.75541829589048</v>
+        <v>42.75541829589047</v>
       </c>
       <c r="I39" t="n">
         <v>86.44169614186399</v>
       </c>
       <c r="J39" t="n">
-        <v>165.481020982128</v>
+        <v>299.0104088577483</v>
       </c>
       <c r="K39" t="n">
-        <v>313.2719753503762</v>
+        <v>446.8013632259966</v>
       </c>
       <c r="L39" t="n">
-        <v>519.522564972776</v>
+        <v>653.0519528483964</v>
       </c>
       <c r="M39" t="n">
-        <v>763.3527659282773</v>
+        <v>896.8821538038977</v>
       </c>
       <c r="N39" t="n">
-        <v>1254.962719722999</v>
+        <v>1149.507219438093</v>
       </c>
       <c r="O39" t="n">
-        <v>1482.454583745858</v>
+        <v>1376.999083460952</v>
       </c>
       <c r="P39" t="n">
-        <v>1661.89523739668</v>
+        <v>1556.439737111774</v>
       </c>
       <c r="Q39" t="n">
-        <v>1773.7346928875</v>
+        <v>1668.279192602594</v>
       </c>
       <c r="R39" t="n">
         <v>1815.649874842555</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>386.589755642414</v>
+        <v>749.5610577248749</v>
       </c>
       <c r="C40" t="n">
-        <v>214.6171925213301</v>
+        <v>577.5884946037909</v>
       </c>
       <c r="D40" t="n">
-        <v>214.6171925213301</v>
+        <v>414.2717217305616</v>
       </c>
       <c r="E40" t="n">
-        <v>214.6171925213301</v>
+        <v>414.2717217305616</v>
       </c>
       <c r="F40" t="n">
-        <v>42.75541829589048</v>
+        <v>242.409947505122</v>
       </c>
       <c r="G40" t="n">
-        <v>42.75541829589048</v>
+        <v>242.409947505122</v>
       </c>
       <c r="H40" t="n">
-        <v>42.75541829589048</v>
+        <v>106.6186295476233</v>
       </c>
       <c r="I40" t="n">
-        <v>42.75541829589048</v>
+        <v>42.75541829589047</v>
       </c>
       <c r="J40" t="n">
-        <v>162.634922133069</v>
+        <v>84.71320548484807</v>
       </c>
       <c r="K40" t="n">
-        <v>491.6854607613571</v>
+        <v>166.4811349991142</v>
       </c>
       <c r="L40" t="n">
-        <v>708.2288136909386</v>
+        <v>275.9756251911622</v>
       </c>
       <c r="M40" t="n">
-        <v>1237.327115102583</v>
+        <v>805.0739266028068</v>
       </c>
       <c r="N40" t="n">
-        <v>1749.855293085983</v>
+        <v>1317.602104586207</v>
       </c>
       <c r="O40" t="n">
-        <v>1852.309315854113</v>
+        <v>1797.75845165754</v>
       </c>
       <c r="P40" t="n">
-        <v>1936.87886150226</v>
+        <v>2088.252358880158</v>
       </c>
       <c r="Q40" t="n">
-        <v>2137.770914794524</v>
+        <v>2137.770914794523</v>
       </c>
       <c r="R40" t="n">
         <v>2131.215415329222</v>
       </c>
       <c r="S40" t="n">
-        <v>2121.853986717964</v>
+        <v>1976.771053098196</v>
       </c>
       <c r="T40" t="n">
-        <v>1882.361598812109</v>
+        <v>1737.27866519234</v>
       </c>
       <c r="U40" t="n">
-        <v>1602.226260438391</v>
+        <v>1457.143326818622</v>
       </c>
       <c r="V40" t="n">
-        <v>1320.51479304642</v>
+        <v>1457.143326818622</v>
       </c>
       <c r="W40" t="n">
-        <v>1045.662389218933</v>
+        <v>1182.290922991135</v>
       </c>
       <c r="X40" t="n">
-        <v>803.0984926647377</v>
+        <v>939.7270264369405</v>
       </c>
       <c r="Y40" t="n">
-        <v>576.7557243544798</v>
+        <v>939.7270264369405</v>
       </c>
     </row>
     <row r="41">
@@ -7387,40 +7387,40 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1329.659566262618</v>
+        <v>722.3996354988195</v>
       </c>
       <c r="C41" t="n">
-        <v>1329.659566262618</v>
+        <v>722.3996354988195</v>
       </c>
       <c r="D41" t="n">
-        <v>1329.659566262618</v>
+        <v>722.3996354988195</v>
       </c>
       <c r="E41" t="n">
-        <v>903.6826264104756</v>
+        <v>722.3996354988195</v>
       </c>
       <c r="F41" t="n">
-        <v>478.5584445998758</v>
+        <v>722.3996354988195</v>
       </c>
       <c r="G41" t="n">
-        <v>76.22656321755409</v>
+        <v>320.0677541164978</v>
       </c>
       <c r="H41" t="n">
-        <v>42.75541829589048</v>
+        <v>42.75541829589047</v>
       </c>
       <c r="I41" t="n">
-        <v>84.39494262103617</v>
+        <v>84.39494262103631</v>
       </c>
       <c r="J41" t="n">
-        <v>222.2360596072053</v>
+        <v>222.2360596072047</v>
       </c>
       <c r="K41" t="n">
-        <v>437.0691715610012</v>
+        <v>437.0691715610005</v>
       </c>
       <c r="L41" t="n">
-        <v>709.5851800848329</v>
+        <v>709.5851800848322</v>
       </c>
       <c r="M41" t="n">
-        <v>1017.95803136565</v>
+        <v>1017.958031365649</v>
       </c>
       <c r="N41" t="n">
         <v>1332.070421635641</v>
@@ -7429,34 +7429,34 @@
         <v>1626.510864636165</v>
       </c>
       <c r="P41" t="n">
-        <v>1872.202557977127</v>
+        <v>1872.202557977126</v>
       </c>
       <c r="Q41" t="n">
         <v>2048.8787162726</v>
       </c>
       <c r="R41" t="n">
-        <v>2137.770914794524</v>
+        <v>2137.770914794523</v>
       </c>
       <c r="S41" t="n">
-        <v>2137.770914794524</v>
+        <v>2079.142258348449</v>
       </c>
       <c r="T41" t="n">
-        <v>2137.770914794524</v>
+        <v>2079.142258348449</v>
       </c>
       <c r="U41" t="n">
-        <v>2137.770914794524</v>
+        <v>1820.94792342712</v>
       </c>
       <c r="V41" t="n">
-        <v>2137.770914794524</v>
+        <v>1463.458508553369</v>
       </c>
       <c r="W41" t="n">
-        <v>1741.379565094871</v>
+        <v>1067.067158853716</v>
       </c>
       <c r="X41" t="n">
-        <v>1329.659566262618</v>
+        <v>1067.067158853716</v>
       </c>
       <c r="Y41" t="n">
-        <v>1329.659566262618</v>
+        <v>1067.067158853716</v>
       </c>
     </row>
     <row r="42">
@@ -7484,34 +7484,34 @@
         <v>85.75954558772929</v>
       </c>
       <c r="H42" t="n">
-        <v>42.75541829589048</v>
+        <v>42.75541829589047</v>
       </c>
       <c r="I42" t="n">
         <v>86.44169614186399</v>
       </c>
       <c r="J42" t="n">
-        <v>165.481020982128</v>
+        <v>299.0104088577483</v>
       </c>
       <c r="K42" t="n">
-        <v>552.2568635109025</v>
+        <v>446.8013632259966</v>
       </c>
       <c r="L42" t="n">
-        <v>758.5074531333022</v>
+        <v>653.0519528483964</v>
       </c>
       <c r="M42" t="n">
-        <v>1002.337654088804</v>
+        <v>896.8821538038977</v>
       </c>
       <c r="N42" t="n">
-        <v>1254.962719722999</v>
+        <v>1149.507219438093</v>
       </c>
       <c r="O42" t="n">
-        <v>1482.454583745858</v>
+        <v>1376.999083460952</v>
       </c>
       <c r="P42" t="n">
-        <v>1661.89523739668</v>
+        <v>1556.439737111774</v>
       </c>
       <c r="Q42" t="n">
-        <v>1773.7346928875</v>
+        <v>1668.279192602594</v>
       </c>
       <c r="R42" t="n">
         <v>1815.649874842555</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>684.2181511109445</v>
+        <v>487.554709393803</v>
       </c>
       <c r="C43" t="n">
-        <v>684.2181511109445</v>
+        <v>315.582146272719</v>
       </c>
       <c r="D43" t="n">
-        <v>684.2181511109445</v>
+        <v>315.582146272719</v>
       </c>
       <c r="E43" t="n">
-        <v>518.009945263798</v>
+        <v>149.3739404255726</v>
       </c>
       <c r="F43" t="n">
-        <v>416.5958724536483</v>
+        <v>42.75541829589047</v>
       </c>
       <c r="G43" t="n">
-        <v>251.2392550574696</v>
+        <v>42.75541829589047</v>
       </c>
       <c r="H43" t="n">
-        <v>115.4479370999708</v>
+        <v>42.75541829589047</v>
       </c>
       <c r="I43" t="n">
-        <v>42.75541829589048</v>
+        <v>42.75541829589047</v>
       </c>
       <c r="J43" t="n">
-        <v>160.9080989321363</v>
+        <v>162.634922133069</v>
       </c>
       <c r="K43" t="n">
-        <v>242.6760284464024</v>
+        <v>257.7653483792127</v>
       </c>
       <c r="L43" t="n">
-        <v>728.5594122296153</v>
+        <v>743.6487321624256</v>
       </c>
       <c r="M43" t="n">
-        <v>1257.65771364126</v>
+        <v>859.6247907993791</v>
       </c>
       <c r="N43" t="n">
-        <v>1372.15296878278</v>
+        <v>1372.152968782779</v>
       </c>
       <c r="O43" t="n">
         <v>1852.309315854113</v>
       </c>
       <c r="P43" t="n">
-        <v>1936.87886150226</v>
+        <v>1936.878861502259</v>
       </c>
       <c r="Q43" t="n">
-        <v>2137.770914794524</v>
+        <v>2137.770914794523</v>
       </c>
       <c r="R43" t="n">
-        <v>2137.770914794524</v>
+        <v>2137.770914794523</v>
       </c>
       <c r="S43" t="n">
-        <v>2137.770914794524</v>
+        <v>1983.326552563498</v>
       </c>
       <c r="T43" t="n">
-        <v>1898.278526888668</v>
+        <v>1983.326552563498</v>
       </c>
       <c r="U43" t="n">
-        <v>1618.14318851495</v>
+        <v>1703.19121418978</v>
       </c>
       <c r="V43" t="n">
-        <v>1618.14318851495</v>
+        <v>1421.479746797809</v>
       </c>
       <c r="W43" t="n">
-        <v>1343.290784687463</v>
+        <v>1146.627342970321</v>
       </c>
       <c r="X43" t="n">
-        <v>1100.726888133268</v>
+        <v>904.0634464161266</v>
       </c>
       <c r="Y43" t="n">
-        <v>874.3841198230102</v>
+        <v>677.7206781058686</v>
       </c>
     </row>
     <row r="44">
@@ -7624,58 +7624,58 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>445.0872996782122</v>
+        <v>722.3996354988195</v>
       </c>
       <c r="C44" t="n">
-        <v>445.0872996782122</v>
+        <v>722.3996354988195</v>
       </c>
       <c r="D44" t="n">
-        <v>445.0872996782122</v>
+        <v>722.3996354988195</v>
       </c>
       <c r="E44" t="n">
-        <v>445.0872996782122</v>
+        <v>722.3996354988195</v>
       </c>
       <c r="F44" t="n">
-        <v>445.0872996782122</v>
+        <v>722.3996354988195</v>
       </c>
       <c r="G44" t="n">
-        <v>42.75541829589048</v>
+        <v>320.0677541164978</v>
       </c>
       <c r="H44" t="n">
-        <v>42.75541829589048</v>
+        <v>42.75541829589047</v>
       </c>
       <c r="I44" t="n">
-        <v>84.39494262103617</v>
+        <v>84.39494262103618</v>
       </c>
       <c r="J44" t="n">
-        <v>222.2360596072053</v>
+        <v>222.2360596072045</v>
       </c>
       <c r="K44" t="n">
-        <v>437.0691715610012</v>
+        <v>437.0691715610004</v>
       </c>
       <c r="L44" t="n">
-        <v>709.5851800848329</v>
+        <v>709.5851800848322</v>
       </c>
       <c r="M44" t="n">
-        <v>1017.95803136565</v>
+        <v>1017.958031365649</v>
       </c>
       <c r="N44" t="n">
         <v>1332.070421635641</v>
       </c>
       <c r="O44" t="n">
-        <v>1626.510864636165</v>
+        <v>1626.510864636164</v>
       </c>
       <c r="P44" t="n">
-        <v>1872.202557977127</v>
+        <v>1872.202557977126</v>
       </c>
       <c r="Q44" t="n">
         <v>2048.8787162726</v>
       </c>
       <c r="R44" t="n">
-        <v>2137.770914794524</v>
+        <v>2137.770914794523</v>
       </c>
       <c r="S44" t="n">
-        <v>2079.14225834845</v>
+        <v>2079.142258348449</v>
       </c>
       <c r="T44" t="n">
         <v>1867.003122344158</v>
@@ -7687,13 +7687,13 @@
         <v>1251.319372549078</v>
       </c>
       <c r="W44" t="n">
-        <v>864.9356639697422</v>
+        <v>854.9280228494249</v>
       </c>
       <c r="X44" t="n">
-        <v>864.9356639697422</v>
+        <v>722.3996354988195</v>
       </c>
       <c r="Y44" t="n">
-        <v>864.9356639697422</v>
+        <v>722.3996354988195</v>
       </c>
     </row>
     <row r="45">
@@ -7721,16 +7721,16 @@
         <v>85.75954558772929</v>
       </c>
       <c r="H45" t="n">
-        <v>42.75541829589048</v>
+        <v>42.75541829589047</v>
       </c>
       <c r="I45" t="n">
         <v>62.98439029745215</v>
       </c>
       <c r="J45" t="n">
-        <v>404.4659091426543</v>
+        <v>404.4659091426541</v>
       </c>
       <c r="K45" t="n">
-        <v>552.2568635109025</v>
+        <v>552.2568635109023</v>
       </c>
       <c r="L45" t="n">
         <v>758.5074531333022</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1089.955188520548</v>
+        <v>386.589755642414</v>
       </c>
       <c r="C46" t="n">
-        <v>917.9826253994637</v>
+        <v>214.6171925213301</v>
       </c>
       <c r="D46" t="n">
-        <v>754.6658525262344</v>
+        <v>214.6171925213301</v>
       </c>
       <c r="E46" t="n">
-        <v>588.4576466790879</v>
+        <v>214.6171925213301</v>
       </c>
       <c r="F46" t="n">
-        <v>416.5958724536483</v>
+        <v>42.75541829589047</v>
       </c>
       <c r="G46" t="n">
-        <v>251.2392550574696</v>
+        <v>42.75541829589047</v>
       </c>
       <c r="H46" t="n">
-        <v>115.4479370999708</v>
+        <v>42.75541829589047</v>
       </c>
       <c r="I46" t="n">
-        <v>42.75541829589048</v>
+        <v>42.75541829589047</v>
       </c>
       <c r="J46" t="n">
         <v>162.634922133069</v>
@@ -7815,43 +7815,43 @@
         <v>977.5688445445701</v>
       </c>
       <c r="M46" t="n">
-        <v>1322.603833371156</v>
+        <v>1093.544903181524</v>
       </c>
       <c r="N46" t="n">
-        <v>1437.099088512676</v>
+        <v>1208.040158323044</v>
       </c>
       <c r="O46" t="n">
-        <v>1539.553111280806</v>
+        <v>1539.553111280805</v>
       </c>
       <c r="P46" t="n">
-        <v>1936.87886150226</v>
+        <v>1936.878861502259</v>
       </c>
       <c r="Q46" t="n">
-        <v>2137.770914794524</v>
+        <v>2137.770914794523</v>
       </c>
       <c r="R46" t="n">
-        <v>2137.770914794524</v>
+        <v>2131.215415329222</v>
       </c>
       <c r="S46" t="n">
-        <v>2137.770914794524</v>
+        <v>2121.853986717964</v>
       </c>
       <c r="T46" t="n">
-        <v>2137.770914794524</v>
+        <v>1882.361598812109</v>
       </c>
       <c r="U46" t="n">
-        <v>1857.635576420806</v>
+        <v>1602.226260438391</v>
       </c>
       <c r="V46" t="n">
-        <v>1857.635576420806</v>
+        <v>1320.51479304642</v>
       </c>
       <c r="W46" t="n">
-        <v>1749.027822097066</v>
+        <v>1045.662389218933</v>
       </c>
       <c r="X46" t="n">
-        <v>1506.463925542871</v>
+        <v>803.0984926647377</v>
       </c>
       <c r="Y46" t="n">
-        <v>1280.121157232613</v>
+        <v>576.7557243544798</v>
       </c>
     </row>
   </sheetData>
@@ -8768,7 +8768,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>265.0931252575128</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8789,7 +8789,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>265.093125257514</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -8847,28 +8847,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L13" t="n">
         <v>380.1908016072373</v>
       </c>
       <c r="M13" t="n">
-        <v>417.2951947219101</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>402.0534574160406</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>209.331103319707</v>
+        <v>231.372656757204</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -9087,25 +9087,25 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K16" t="n">
-        <v>194.8977420769149</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>230.0459590682756</v>
       </c>
       <c r="M16" t="n">
-        <v>417.2951947219101</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>402.0534574160406</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P16" t="n">
         <v>315.9153581548562</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9239,16 +9239,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>23.69424832768873</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>265.0931252575132</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>134.8781695713337</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9266,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>106.5207073584907</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9321,7 +9321,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>249.7804132464869</v>
@@ -9330,19 +9330,19 @@
         <v>380.1908016072373</v>
       </c>
       <c r="M19" t="n">
-        <v>231.3726567572036</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>81.46648476015024</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P19" t="n">
         <v>315.9153581548562</v>
       </c>
       <c r="Q19" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9479,7 +9479,7 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>134.8781695713336</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>241.3988769298244</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9561,16 +9561,16 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M22" t="n">
-        <v>417.2951947219101</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>294.1425048919637</v>
+        <v>81.46648476014916</v>
       </c>
       <c r="O22" t="n">
         <v>381.5174992961649</v>
@@ -9658,7 +9658,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>307.5560500126516</v>
+        <v>307.5560500126511</v>
       </c>
       <c r="R23" t="n">
         <v>153.7764225027789</v>
@@ -9713,7 +9713,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -9731,7 +9731,7 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>265.0931252575133</v>
+        <v>134.8781695713338</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -9740,7 +9740,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9816,7 +9816,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q25" t="n">
-        <v>40.01016813891771</v>
+        <v>40.01016813891724</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -9886,19 +9886,19 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>354.3083411156917</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>502.7102109023911</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>307.5560500126511</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9950,10 +9950,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>134.8781695713336</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9965,7 +9965,7 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>265.0931252575132</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -9977,7 +9977,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -10129,10 +10129,10 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>502.710210902391</v>
+        <v>461.3324725154302</v>
       </c>
       <c r="Q29" t="n">
-        <v>354.3083411156922</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -10187,13 +10187,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>134.8781695713336</v>
       </c>
       <c r="K30" t="n">
-        <v>265.0931252575131</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10214,7 +10214,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10278,7 +10278,7 @@
         <v>380.1908016072373</v>
       </c>
       <c r="M31" t="n">
-        <v>417.7126065281028</v>
+        <v>383.5290567582536</v>
       </c>
       <c r="N31" t="n">
         <v>402.0534574160406</v>
@@ -10290,7 +10290,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q31" t="n">
-        <v>118.7189728340893</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10427,13 +10427,13 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>134.8781695713336</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>134.8781695713336</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10515,7 +10515,7 @@
         <v>380.1908016072373</v>
       </c>
       <c r="M34" t="n">
-        <v>417.7126065281028</v>
+        <v>304.8202520630811</v>
       </c>
       <c r="N34" t="n">
         <v>402.0534574160406</v>
@@ -10527,7 +10527,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q34" t="n">
-        <v>40.01016813891724</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10661,10 +10661,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J36" t="n">
-        <v>265.0931252575132</v>
+        <v>134.8781695713337</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10688,7 +10688,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10749,19 +10749,19 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>380.1908016072373</v>
+        <v>309.3842421978329</v>
       </c>
       <c r="M37" t="n">
-        <v>417.2951947219103</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
         <v>402.0534574160406</v>
       </c>
       <c r="O37" t="n">
-        <v>209.331103319707</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -10901,7 +10901,7 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>134.8781695713336</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -10913,7 +10913,7 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>241.3988769298245</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -10925,7 +10925,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10980,28 +10980,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>249.7804132464869</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>108.130164381347</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>417.2951947219103</v>
+        <v>417.2951947219101</v>
       </c>
       <c r="N40" t="n">
         <v>402.0534574160406</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>208.0044056307792</v>
       </c>
       <c r="Q40" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11138,10 +11138,10 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>134.8781695713336</v>
       </c>
       <c r="K42" t="n">
-        <v>241.3988769298245</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11162,7 +11162,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11217,19 +11217,19 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>76.9645388356447</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>13.49747144634105</v>
       </c>
       <c r="L43" t="n">
         <v>380.1908016072373</v>
       </c>
       <c r="M43" t="n">
-        <v>417.2951947219103</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O43" t="n">
         <v>381.5174992961649</v>
@@ -11375,7 +11375,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>265.0931252575132</v>
+        <v>265.0931252575131</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11463,13 +11463,13 @@
         <v>380.1908016072373</v>
       </c>
       <c r="M46" t="n">
-        <v>231.3726567572043</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>231.3726567572035</v>
       </c>
       <c r="P46" t="n">
         <v>315.9153581548562</v>
@@ -23257,25 +23257,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>276.0821191988331</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>274.5392124624013</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23308,16 +23308,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>58.04236988161368</v>
+        <v>58.04236988161365</v>
       </c>
       <c r="T11" t="n">
-        <v>210.0177446442483</v>
+        <v>210.0177446442482</v>
       </c>
       <c r="U11" t="n">
-        <v>255.612391572116</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>353.914520725013</v>
+        <v>197.1787210792841</v>
       </c>
       <c r="W11" t="n">
         <v>392.4274362026566</v>
@@ -23415,13 +23415,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>101.3725663106526</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>135.1725529448829</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
         <v>164.546123788675</v>
@@ -23430,13 +23430,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>163.7030512222169</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>134.4334047779237</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>71.96559361603956</v>
+        <v>71.96559361603954</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23494,25 +23494,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>248.445994746313</v>
       </c>
       <c r="E14" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>398.3085625684984</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>274.5392124624013</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23545,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>58.04236988161366</v>
       </c>
       <c r="T14" t="n">
         <v>210.0177446442482</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>255.612391572116</v>
       </c>
       <c r="V14" t="n">
-        <v>243.2726747900503</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23655,16 +23655,16 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>38.9645969457768</v>
       </c>
       <c r="D16" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>148.7883649928822</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
         <v>163.7030512222169</v>
@@ -23673,7 +23673,7 @@
         <v>134.4334047779237</v>
       </c>
       <c r="I16" t="n">
-        <v>71.96559361603954</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,7 +23703,7 @@
         <v>6.489944470648574</v>
       </c>
       <c r="S16" t="n">
-        <v>152.8999186087154</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23746,10 +23746,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>398.3085625684984</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>274.5392124624013</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23785,22 +23785,22 @@
         <v>58.04236988161366</v>
       </c>
       <c r="T17" t="n">
-        <v>210.0177446442482</v>
+        <v>210.0177446442483</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>255.612391572116</v>
       </c>
       <c r="V17" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>362.0801740672053</v>
       </c>
       <c r="X17" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>86.3204166892944</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23889,22 +23889,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>109.6303480213594</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>163.7030512222169</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23940,16 +23940,16 @@
         <v>6.489944470648574</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>152.8999186087154</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>237.097464026797</v>
       </c>
       <c r="U19" t="n">
-        <v>196.0624391294048</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23971,22 +23971,22 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E20" t="n">
-        <v>200.1540558554448</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>398.3085625684984</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>274.5392124624013</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24019,25 +24019,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>58.04236988161366</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>210.0177446442482</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>255.612391572116</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>245.7568707526518</v>
       </c>
       <c r="W20" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="21">
@@ -24126,13 +24126,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
         <v>164.546123788675</v>
@@ -24141,10 +24141,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>136.5940321434026</v>
+        <v>163.7030512222169</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>134.4334047779237</v>
       </c>
       <c r="I22" t="n">
         <v>71.96559361603954</v>
@@ -24177,7 +24177,7 @@
         <v>6.489944470648574</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>137.1421598129224</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24189,7 +24189,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24214,16 +24214,16 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>342.5200655979638</v>
       </c>
       <c r="F23" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G23" t="n">
-        <v>398.3085625684984</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>274.5392124624013</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24256,16 +24256,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>58.04236988161367</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>210.0177446442483</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>156.810594110873</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -24274,7 +24274,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="24">
@@ -24442,25 +24442,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>286.9836909695927</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G26" t="n">
-        <v>339.4091646600128</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>274.5392124624013</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24493,13 +24493,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>58.04236988161366</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>210.0177446442483</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>255.612391572116</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -24508,7 +24508,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X26" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24679,10 +24679,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>253.3695905271815</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D29" t="n">
         <v>419.0596946068497</v>
@@ -24730,16 +24730,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>58.04236988161366</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>8.432031035271166</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>255.612391572116</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -24922,13 +24922,13 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D32" t="n">
-        <v>353.0275580038614</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>259.4368803321878</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -24976,10 +24976,10 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -25156,7 +25156,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D35" t="n">
         <v>419.0596946068497</v>
@@ -25165,13 +25165,13 @@
         <v>421.717170453621</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G35" t="n">
-        <v>398.3085625684984</v>
+        <v>2.020679341697814</v>
       </c>
       <c r="H35" t="n">
-        <v>274.5392124624013</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25204,22 +25204,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>28.79582341853869</v>
+        <v>58.04236988161366</v>
       </c>
       <c r="T35" t="n">
         <v>210.0177446442483</v>
       </c>
       <c r="U35" t="n">
-        <v>255.612391572116</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25311,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25326,13 +25326,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>163.7030512222169</v>
       </c>
       <c r="H37" t="n">
-        <v>5.141720865029356</v>
+        <v>134.4334047779237</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>71.96559361603954</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,19 +25362,19 @@
         <v>6.489944470648574</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>104.8547422312763</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>277.3339849899809</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25390,10 +25390,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>300.4052793171662</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -25405,7 +25405,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>398.3085625684984</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -25441,13 +25441,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>58.04236988161366</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>210.0177446442483</v>
+        <v>210.0177446442482</v>
       </c>
       <c r="U38" t="n">
-        <v>255.612391572116</v>
+        <v>174.0870000039475</v>
       </c>
       <c r="V38" t="n">
         <v>353.914520725013</v>
@@ -25554,7 +25554,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>164.546123788675</v>
@@ -25566,10 +25566,10 @@
         <v>163.7030512222169</v>
       </c>
       <c r="H40" t="n">
-        <v>134.4334047779237</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>71.96559361603954</v>
+        <v>8.741014476824077</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,7 +25599,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>143.6321042835701</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25608,7 +25608,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="41">
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>415.6498806486147</v>
+        <v>74.42903252726711</v>
       </c>
       <c r="C41" t="n">
         <v>422.6317226868329</v>
@@ -25636,16 +25636,16 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>241.4027789899543</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25678,22 +25678,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>58.04236988161366</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>210.0177446442483</v>
+        <v>210.0177446442482</v>
       </c>
       <c r="U41" t="n">
-        <v>255.612391572116</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
         <v>401.2838973446586</v>
@@ -25788,7 +25788,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>161.683605144497</v>
@@ -25797,16 +25797,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>69.74322440113697</v>
+        <v>64.59081957479994</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>163.7030512222169</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>134.4334047779237</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>71.96559361603954</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,16 +25836,16 @@
         <v>6.489944470648574</v>
       </c>
       <c r="S43" t="n">
-        <v>152.8999186087154</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>237.097464026797</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
         <v>422.6317226868329</v>
@@ -25882,7 +25882,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>274.5392124624013</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25927,10 +25927,10 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>9.907564709113672</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>407.6027988439302</v>
+        <v>276.3996953668309</v>
       </c>
       <c r="Y44" t="n">
         <v>401.2838973446586</v>
@@ -26028,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>163.7030512222169</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>134.4334047779237</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>71.96559361603954</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,22 +26070,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>6.489944470648574</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>152.8999186087154</v>
+        <v>143.6321042835706</v>
       </c>
       <c r="T46" t="n">
-        <v>237.097464026797</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>164.58220300871</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>304004.3600471253</v>
+        <v>304004.3600471251</v>
       </c>
     </row>
     <row r="9">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>304004.3600471253</v>
+        <v>304004.3600471252</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>304004.3600471254</v>
+        <v>304004.3600471253</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>304004.3600471253</v>
+        <v>304004.3600471252</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>304004.3600471253</v>
+        <v>304004.3600471252</v>
       </c>
     </row>
   </sheetData>
@@ -26313,43 +26313,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>530725.4205566852</v>
+        <v>530725.420556685</v>
       </c>
       <c r="C2" t="n">
-        <v>530725.420556685</v>
+        <v>530725.4205566851</v>
       </c>
       <c r="D2" t="n">
         <v>530725.420556685</v>
       </c>
       <c r="E2" t="n">
-        <v>315596.4771804491</v>
+        <v>315596.4771804492</v>
       </c>
       <c r="F2" t="n">
         <v>315596.4771804491</v>
       </c>
       <c r="G2" t="n">
-        <v>315596.4771804492</v>
+        <v>315596.4771804493</v>
       </c>
       <c r="H2" t="n">
         <v>315596.4771804491</v>
       </c>
       <c r="I2" t="n">
-        <v>396090.2160723285</v>
+        <v>396090.2160723281</v>
       </c>
       <c r="J2" t="n">
-        <v>396090.2160723284</v>
+        <v>396090.2160723283</v>
       </c>
       <c r="K2" t="n">
-        <v>396090.2160723284</v>
+        <v>396090.216072328</v>
       </c>
       <c r="L2" t="n">
-        <v>396090.2160723283</v>
+        <v>396090.2160723282</v>
       </c>
       <c r="M2" t="n">
         <v>315596.4771804492</v>
       </c>
       <c r="N2" t="n">
-        <v>315596.4771804492</v>
+        <v>315596.4771804491</v>
       </c>
       <c r="O2" t="n">
         <v>315596.4771804492</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>556689.6559222534</v>
+        <v>556689.6559222537</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>79247.32527160764</v>
+        <v>79247.3252716077</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,40 +26426,40 @@
         <v>324702.6297467059</v>
       </c>
       <c r="E4" t="n">
-        <v>22969.16992568476</v>
+        <v>22969.16992568474</v>
       </c>
       <c r="F4" t="n">
         <v>22969.16992568474</v>
       </c>
       <c r="G4" t="n">
-        <v>22969.16992568474</v>
+        <v>22969.16992568475</v>
       </c>
       <c r="H4" t="n">
         <v>22969.16992568474</v>
       </c>
       <c r="I4" t="n">
-        <v>67495.91160320508</v>
+        <v>67495.91160320505</v>
       </c>
       <c r="J4" t="n">
         <v>67495.91160320505</v>
       </c>
       <c r="K4" t="n">
-        <v>67495.91160320507</v>
+        <v>67495.91160320505</v>
       </c>
       <c r="L4" t="n">
-        <v>67495.91160320505</v>
+        <v>67495.91160320504</v>
       </c>
       <c r="M4" t="n">
-        <v>22969.16992568478</v>
+        <v>22969.16992568474</v>
       </c>
       <c r="N4" t="n">
-        <v>22969.16992568475</v>
+        <v>22969.16992568474</v>
       </c>
       <c r="O4" t="n">
-        <v>22969.16992568476</v>
+        <v>22969.16992568474</v>
       </c>
       <c r="P4" t="n">
-        <v>22969.16992568479</v>
+        <v>22969.16992568474</v>
       </c>
     </row>
     <row r="5">
@@ -26478,7 +26478,7 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>43269.71441650123</v>
+        <v>43269.71441650125</v>
       </c>
       <c r="F5" t="n">
         <v>43269.71441650124</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>172395.1908099793</v>
+        <v>172373.4771684828</v>
       </c>
       <c r="C6" t="n">
-        <v>172395.1908099791</v>
+        <v>172373.4771684829</v>
       </c>
       <c r="D6" t="n">
-        <v>172395.1908099791</v>
+        <v>172373.4771684828</v>
       </c>
       <c r="E6" t="n">
-        <v>-307332.0630839903</v>
+        <v>-307935.2063021794</v>
       </c>
       <c r="F6" t="n">
-        <v>249357.5928382631</v>
+        <v>248754.4496200743</v>
       </c>
       <c r="G6" t="n">
-        <v>249357.5928382633</v>
+        <v>248754.4496200744</v>
       </c>
       <c r="H6" t="n">
-        <v>249357.5928382631</v>
+        <v>248754.4496200743</v>
       </c>
       <c r="I6" t="n">
-        <v>214608.7995550301</v>
+        <v>214223.2069824945</v>
       </c>
       <c r="J6" t="n">
-        <v>272164.9827355118</v>
+        <v>271779.3901629765</v>
       </c>
       <c r="K6" t="n">
-        <v>272164.9827355118</v>
+        <v>271779.3901629762</v>
       </c>
       <c r="L6" t="n">
-        <v>272164.9827355117</v>
+        <v>271779.3901629764</v>
       </c>
       <c r="M6" t="n">
-        <v>170110.2675666556</v>
+        <v>169507.1243484666</v>
       </c>
       <c r="N6" t="n">
-        <v>249357.5928382633</v>
+        <v>248754.4496200743</v>
       </c>
       <c r="O6" t="n">
-        <v>249357.5928382633</v>
+        <v>248754.4496200743</v>
       </c>
       <c r="P6" t="n">
-        <v>249357.5928382632</v>
+        <v>248754.4496200743</v>
       </c>
     </row>
   </sheetData>
@@ -26746,7 +26746,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>494.2934179644259</v>
+        <v>494.2934179644262</v>
       </c>
       <c r="F3" t="n">
         <v>494.2934179644261</v>
@@ -26758,7 +26758,7 @@
         <v>494.2934179644261</v>
       </c>
       <c r="I3" t="n">
-        <v>494.293417964426</v>
+        <v>494.2934179644261</v>
       </c>
       <c r="J3" t="n">
         <v>494.2934179644261</v>
@@ -26798,19 +26798,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>534.4427286986307</v>
+        <v>534.442728698631</v>
       </c>
       <c r="F4" t="n">
         <v>534.4427286986307</v>
       </c>
       <c r="G4" t="n">
-        <v>534.4427286986308</v>
+        <v>534.442728698631</v>
       </c>
       <c r="H4" t="n">
-        <v>534.4427286986308</v>
+        <v>534.4427286986307</v>
       </c>
       <c r="I4" t="n">
-        <v>750.8836385195243</v>
+        <v>750.8836385195242</v>
       </c>
       <c r="J4" t="n">
         <v>750.8836385195242</v>
@@ -26822,16 +26822,16 @@
         <v>750.8836385195242</v>
       </c>
       <c r="M4" t="n">
-        <v>534.442728698631</v>
+        <v>534.4427286986307</v>
       </c>
       <c r="N4" t="n">
-        <v>534.442728698631</v>
+        <v>534.4427286986308</v>
       </c>
       <c r="O4" t="n">
-        <v>534.442728698631</v>
+        <v>534.4427286986308</v>
       </c>
       <c r="P4" t="n">
-        <v>534.442728698631</v>
+        <v>534.4427286986308</v>
       </c>
     </row>
   </sheetData>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>494.2934179644259</v>
+        <v>494.2934179644262</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>534.4427286986307</v>
+        <v>534.442728698631</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>318.0018188777373</v>
+        <v>318.0018188777375</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>534.4427286986307</v>
+        <v>534.442728698631</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.987109217947439</v>
+        <v>1.98710921794744</v>
       </c>
       <c r="H11" t="n">
-        <v>20.35048227830422</v>
+        <v>20.35048227830423</v>
       </c>
       <c r="I11" t="n">
-        <v>76.60802812491873</v>
+        <v>76.60802812491877</v>
       </c>
       <c r="J11" t="n">
-        <v>168.6534109867666</v>
+        <v>168.6534109867667</v>
       </c>
       <c r="K11" t="n">
-        <v>252.7677441824818</v>
+        <v>252.7677441824819</v>
       </c>
       <c r="L11" t="n">
-        <v>313.5807379112408</v>
+        <v>313.580737911241</v>
       </c>
       <c r="M11" t="n">
-        <v>348.9189914659136</v>
+        <v>348.9189914659137</v>
       </c>
       <c r="N11" t="n">
-        <v>354.5648655314067</v>
+        <v>354.564865531407</v>
       </c>
       <c r="O11" t="n">
-        <v>334.8055482454419</v>
+        <v>334.8055482454421</v>
       </c>
       <c r="P11" t="n">
-        <v>285.7487894273644</v>
+        <v>285.7487894273646</v>
       </c>
       <c r="Q11" t="n">
-        <v>214.5854405596217</v>
+        <v>214.5854405596218</v>
       </c>
       <c r="R11" t="n">
-        <v>124.8227494118909</v>
+        <v>124.822749411891</v>
       </c>
       <c r="S11" t="n">
-        <v>45.28125130397731</v>
+        <v>45.28125130397734</v>
       </c>
       <c r="T11" t="n">
-        <v>8.698570601564919</v>
+        <v>8.698570601564924</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1589687374357951</v>
+        <v>0.1589687374357952</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.063197163168765</v>
+        <v>1.063197163168766</v>
       </c>
       <c r="H12" t="n">
         <v>10.26824628639308</v>
       </c>
       <c r="I12" t="n">
-        <v>36.60569180208249</v>
+        <v>36.60569180208251</v>
       </c>
       <c r="J12" t="n">
-        <v>100.4488161921858</v>
+        <v>100.4488161921859</v>
       </c>
       <c r="K12" t="n">
-        <v>171.6830261244931</v>
+        <v>171.6830261244932</v>
       </c>
       <c r="L12" t="n">
-        <v>230.8490156257444</v>
+        <v>230.8490156257445</v>
       </c>
       <c r="M12" t="n">
-        <v>269.3899127906121</v>
+        <v>269.3899127906122</v>
       </c>
       <c r="N12" t="n">
-        <v>276.5198621874763</v>
+        <v>276.5198621874765</v>
       </c>
       <c r="O12" t="n">
-        <v>252.9616513614737</v>
+        <v>252.9616513614738</v>
       </c>
       <c r="P12" t="n">
-        <v>203.0240267107092</v>
+        <v>203.0240267107093</v>
       </c>
       <c r="Q12" t="n">
-        <v>135.7161852494024</v>
+        <v>135.7161852494025</v>
       </c>
       <c r="R12" t="n">
-        <v>66.01148702551336</v>
+        <v>66.01148702551339</v>
       </c>
       <c r="S12" t="n">
-        <v>19.74842099131455</v>
+        <v>19.74842099131456</v>
       </c>
       <c r="T12" t="n">
-        <v>4.285430670842521</v>
+        <v>4.285430670842524</v>
       </c>
       <c r="U12" t="n">
-        <v>0.06994718178741879</v>
+        <v>0.06994718178741882</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8913487864932269</v>
+        <v>0.8913487864932275</v>
       </c>
       <c r="H13" t="n">
-        <v>7.924901029003423</v>
+        <v>7.924901029003427</v>
       </c>
       <c r="I13" t="n">
-        <v>26.80528896108723</v>
+        <v>26.80528896108725</v>
       </c>
       <c r="J13" t="n">
-        <v>63.01835920507114</v>
+        <v>63.01835920507118</v>
       </c>
       <c r="K13" t="n">
-        <v>103.5585226489403</v>
+        <v>103.5585226489404</v>
       </c>
       <c r="L13" t="n">
-        <v>132.5192550391839</v>
+        <v>132.519255039184</v>
       </c>
       <c r="M13" t="n">
         <v>139.7229738682065</v>
       </c>
       <c r="N13" t="n">
-        <v>136.4006738458227</v>
+        <v>136.4006738458228</v>
       </c>
       <c r="O13" t="n">
-        <v>125.9880993854245</v>
+        <v>125.9880993854246</v>
       </c>
       <c r="P13" t="n">
-        <v>107.8045841409626</v>
+        <v>107.8045841409627</v>
       </c>
       <c r="Q13" t="n">
-        <v>74.6383061126283</v>
+        <v>74.63830611262834</v>
       </c>
       <c r="R13" t="n">
-        <v>40.07828270904999</v>
+        <v>40.07828270905001</v>
       </c>
       <c r="S13" t="n">
-        <v>15.53377839734105</v>
+        <v>15.53377839734106</v>
       </c>
       <c r="T13" t="n">
-        <v>3.808490269561969</v>
+        <v>3.808490269561971</v>
       </c>
       <c r="U13" t="n">
-        <v>0.04861902471781243</v>
+        <v>0.04861902471781246</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32229,10 +32229,10 @@
         <v>1.98710921794744</v>
       </c>
       <c r="H17" t="n">
-        <v>20.35048227830423</v>
+        <v>20.35048227830422</v>
       </c>
       <c r="I17" t="n">
-        <v>76.60802812491876</v>
+        <v>76.60802812491875</v>
       </c>
       <c r="J17" t="n">
         <v>168.6534109867667</v>
@@ -32247,13 +32247,13 @@
         <v>348.9189914659137</v>
       </c>
       <c r="N17" t="n">
-        <v>354.5648655314069</v>
+        <v>354.5648655314068</v>
       </c>
       <c r="O17" t="n">
         <v>334.805548245442</v>
       </c>
       <c r="P17" t="n">
-        <v>285.7487894273646</v>
+        <v>285.7487894273645</v>
       </c>
       <c r="Q17" t="n">
         <v>214.5854405596218</v>
@@ -32265,10 +32265,10 @@
         <v>45.28125130397733</v>
       </c>
       <c r="T17" t="n">
-        <v>8.698570601564924</v>
+        <v>8.698570601564922</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1589687374357952</v>
+        <v>0.1589687374357951</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32335,10 +32335,10 @@
         <v>203.0240267107093</v>
       </c>
       <c r="Q18" t="n">
-        <v>135.7161852494025</v>
+        <v>135.7161852494024</v>
       </c>
       <c r="R18" t="n">
-        <v>66.01148702551339</v>
+        <v>66.01148702551338</v>
       </c>
       <c r="S18" t="n">
         <v>19.74842099131456</v>
@@ -32347,7 +32347,7 @@
         <v>4.285430670842523</v>
       </c>
       <c r="U18" t="n">
-        <v>0.06994718178741882</v>
+        <v>0.06994718178741881</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,16 +32384,16 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8913487864932274</v>
+        <v>0.8913487864932272</v>
       </c>
       <c r="H19" t="n">
-        <v>7.924901029003427</v>
+        <v>7.924901029003426</v>
       </c>
       <c r="I19" t="n">
         <v>26.80528896108724</v>
       </c>
       <c r="J19" t="n">
-        <v>63.01835920507117</v>
+        <v>63.01835920507116</v>
       </c>
       <c r="K19" t="n">
         <v>103.5585226489404</v>
@@ -32414,13 +32414,13 @@
         <v>107.8045841409626</v>
       </c>
       <c r="Q19" t="n">
-        <v>74.63830611262834</v>
+        <v>74.63830611262833</v>
       </c>
       <c r="R19" t="n">
         <v>40.07828270905001</v>
       </c>
       <c r="S19" t="n">
-        <v>15.53377839734106</v>
+        <v>15.53377839734105</v>
       </c>
       <c r="T19" t="n">
         <v>3.80849026956197</v>
@@ -32712,13 +32712,13 @@
         <v>168.6534109867667</v>
       </c>
       <c r="K23" t="n">
-        <v>252.7677441824818</v>
+        <v>252.7677441824819</v>
       </c>
       <c r="L23" t="n">
         <v>313.5807379112409</v>
       </c>
       <c r="M23" t="n">
-        <v>348.9189914659136</v>
+        <v>348.9189914659137</v>
       </c>
       <c r="N23" t="n">
         <v>354.5648655314068</v>
@@ -32730,7 +32730,7 @@
         <v>285.7487894273645</v>
       </c>
       <c r="Q23" t="n">
-        <v>214.5854405596217</v>
+        <v>214.5854405596218</v>
       </c>
       <c r="R23" t="n">
         <v>124.822749411891</v>
@@ -32779,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.063197163168765</v>
+        <v>1.063197163168766</v>
       </c>
       <c r="H24" t="n">
         <v>10.26824628639308</v>
@@ -32794,16 +32794,16 @@
         <v>171.6830261244932</v>
       </c>
       <c r="L24" t="n">
-        <v>230.8490156257444</v>
+        <v>230.8490156257445</v>
       </c>
       <c r="M24" t="n">
-        <v>269.3899127906121</v>
+        <v>269.3899127906122</v>
       </c>
       <c r="N24" t="n">
-        <v>276.5198621874764</v>
+        <v>276.5198621874765</v>
       </c>
       <c r="O24" t="n">
-        <v>252.9616513614737</v>
+        <v>252.9616513614738</v>
       </c>
       <c r="P24" t="n">
         <v>203.0240267107093</v>
@@ -32815,10 +32815,10 @@
         <v>66.01148702551338</v>
       </c>
       <c r="S24" t="n">
-        <v>19.74842099131455</v>
+        <v>19.74842099131456</v>
       </c>
       <c r="T24" t="n">
-        <v>4.285430670842522</v>
+        <v>4.285430670842523</v>
       </c>
       <c r="U24" t="n">
         <v>0.06994718178741881</v>
@@ -32858,10 +32858,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8913487864932271</v>
+        <v>0.8913487864932272</v>
       </c>
       <c r="H25" t="n">
-        <v>7.924901029003425</v>
+        <v>7.924901029003426</v>
       </c>
       <c r="I25" t="n">
         <v>26.80528896108724</v>
@@ -32882,7 +32882,7 @@
         <v>136.4006738458228</v>
       </c>
       <c r="O25" t="n">
-        <v>125.9880993854245</v>
+        <v>125.9880993854246</v>
       </c>
       <c r="P25" t="n">
         <v>107.8045841409626</v>
@@ -32891,7 +32891,7 @@
         <v>74.63830611262833</v>
       </c>
       <c r="R25" t="n">
-        <v>40.07828270905</v>
+        <v>40.07828270905001</v>
       </c>
       <c r="S25" t="n">
         <v>15.53377839734105</v>
@@ -33888,10 +33888,10 @@
         <v>1.98710921794744</v>
       </c>
       <c r="H38" t="n">
-        <v>20.35048227830422</v>
+        <v>20.35048227830423</v>
       </c>
       <c r="I38" t="n">
-        <v>76.60802812491875</v>
+        <v>76.60802812491876</v>
       </c>
       <c r="J38" t="n">
         <v>168.6534109867667</v>
@@ -33906,13 +33906,13 @@
         <v>348.9189914659137</v>
       </c>
       <c r="N38" t="n">
-        <v>354.5648655314068</v>
+        <v>354.5648655314069</v>
       </c>
       <c r="O38" t="n">
         <v>334.805548245442</v>
       </c>
       <c r="P38" t="n">
-        <v>285.7487894273645</v>
+        <v>285.7487894273646</v>
       </c>
       <c r="Q38" t="n">
         <v>214.5854405596218</v>
@@ -33924,10 +33924,10 @@
         <v>45.28125130397733</v>
       </c>
       <c r="T38" t="n">
-        <v>8.698570601564922</v>
+        <v>8.698570601564924</v>
       </c>
       <c r="U38" t="n">
-        <v>0.1589687374357951</v>
+        <v>0.1589687374357952</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33994,10 +33994,10 @@
         <v>203.0240267107093</v>
       </c>
       <c r="Q39" t="n">
-        <v>135.7161852494024</v>
+        <v>135.7161852494025</v>
       </c>
       <c r="R39" t="n">
-        <v>66.01148702551338</v>
+        <v>66.01148702551339</v>
       </c>
       <c r="S39" t="n">
         <v>19.74842099131456</v>
@@ -34006,7 +34006,7 @@
         <v>4.285430670842523</v>
       </c>
       <c r="U39" t="n">
-        <v>0.06994718178741881</v>
+        <v>0.06994718178741882</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,16 +34043,16 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8913487864932272</v>
+        <v>0.8913487864932274</v>
       </c>
       <c r="H40" t="n">
-        <v>7.924901029003426</v>
+        <v>7.924901029003427</v>
       </c>
       <c r="I40" t="n">
         <v>26.80528896108724</v>
       </c>
       <c r="J40" t="n">
-        <v>63.01835920507116</v>
+        <v>63.01835920507117</v>
       </c>
       <c r="K40" t="n">
         <v>103.5585226489404</v>
@@ -34073,13 +34073,13 @@
         <v>107.8045841409626</v>
       </c>
       <c r="Q40" t="n">
-        <v>74.63830611262833</v>
+        <v>74.63830611262834</v>
       </c>
       <c r="R40" t="n">
         <v>40.07828270905001</v>
       </c>
       <c r="S40" t="n">
-        <v>15.53377839734105</v>
+        <v>15.53377839734106</v>
       </c>
       <c r="T40" t="n">
         <v>3.80849026956197</v>
@@ -34125,13 +34125,13 @@
         <v>1.98710921794744</v>
       </c>
       <c r="H41" t="n">
-        <v>20.35048227830422</v>
+        <v>20.35048227830423</v>
       </c>
       <c r="I41" t="n">
-        <v>76.60802812491875</v>
+        <v>76.60802812491876</v>
       </c>
       <c r="J41" t="n">
-        <v>168.6534109867675</v>
+        <v>168.6534109867667</v>
       </c>
       <c r="K41" t="n">
         <v>252.7677441824819</v>
@@ -34143,13 +34143,13 @@
         <v>348.9189914659137</v>
       </c>
       <c r="N41" t="n">
-        <v>354.5648655314068</v>
+        <v>354.5648655314069</v>
       </c>
       <c r="O41" t="n">
         <v>334.805548245442</v>
       </c>
       <c r="P41" t="n">
-        <v>285.7487894273645</v>
+        <v>285.7487894273646</v>
       </c>
       <c r="Q41" t="n">
         <v>214.5854405596218</v>
@@ -34161,10 +34161,10 @@
         <v>45.28125130397733</v>
       </c>
       <c r="T41" t="n">
-        <v>8.698570601564922</v>
+        <v>8.698570601564924</v>
       </c>
       <c r="U41" t="n">
-        <v>0.1589687374357951</v>
+        <v>0.1589687374357952</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34231,10 +34231,10 @@
         <v>203.0240267107093</v>
       </c>
       <c r="Q42" t="n">
-        <v>135.7161852494024</v>
+        <v>135.7161852494025</v>
       </c>
       <c r="R42" t="n">
-        <v>66.01148702551338</v>
+        <v>66.01148702551339</v>
       </c>
       <c r="S42" t="n">
         <v>19.74842099131456</v>
@@ -34243,7 +34243,7 @@
         <v>4.285430670842523</v>
       </c>
       <c r="U42" t="n">
-        <v>0.06994718178741881</v>
+        <v>0.06994718178741882</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,16 +34280,16 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8913487864932272</v>
+        <v>0.8913487864932274</v>
       </c>
       <c r="H43" t="n">
-        <v>7.924901029003426</v>
+        <v>7.924901029003427</v>
       </c>
       <c r="I43" t="n">
         <v>26.80528896108724</v>
       </c>
       <c r="J43" t="n">
-        <v>63.01835920507116</v>
+        <v>63.01835920507117</v>
       </c>
       <c r="K43" t="n">
         <v>103.5585226489404</v>
@@ -34310,13 +34310,13 @@
         <v>107.8045841409626</v>
       </c>
       <c r="Q43" t="n">
-        <v>74.63830611262833</v>
+        <v>74.63830611262834</v>
       </c>
       <c r="R43" t="n">
         <v>40.07828270905001</v>
       </c>
       <c r="S43" t="n">
-        <v>15.53377839734105</v>
+        <v>15.53377839734106</v>
       </c>
       <c r="T43" t="n">
         <v>3.80849026956197</v>
@@ -34362,10 +34362,10 @@
         <v>1.98710921794744</v>
       </c>
       <c r="H44" t="n">
-        <v>20.35048227830422</v>
+        <v>20.35048227830423</v>
       </c>
       <c r="I44" t="n">
-        <v>76.60802812491875</v>
+        <v>76.60802812491876</v>
       </c>
       <c r="J44" t="n">
         <v>168.6534109867667</v>
@@ -34380,13 +34380,13 @@
         <v>348.9189914659137</v>
       </c>
       <c r="N44" t="n">
-        <v>354.5648655314068</v>
+        <v>354.5648655314069</v>
       </c>
       <c r="O44" t="n">
         <v>334.805548245442</v>
       </c>
       <c r="P44" t="n">
-        <v>285.7487894273645</v>
+        <v>285.7487894273646</v>
       </c>
       <c r="Q44" t="n">
         <v>214.5854405596218</v>
@@ -34398,10 +34398,10 @@
         <v>45.28125130397733</v>
       </c>
       <c r="T44" t="n">
-        <v>8.698570601564922</v>
+        <v>8.698570601564924</v>
       </c>
       <c r="U44" t="n">
-        <v>0.1589687374357951</v>
+        <v>0.1589687374357952</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34468,10 +34468,10 @@
         <v>203.0240267107093</v>
       </c>
       <c r="Q45" t="n">
-        <v>135.7161852494024</v>
+        <v>135.7161852494025</v>
       </c>
       <c r="R45" t="n">
-        <v>66.01148702551338</v>
+        <v>66.01148702551339</v>
       </c>
       <c r="S45" t="n">
         <v>19.74842099131456</v>
@@ -34480,7 +34480,7 @@
         <v>4.285430670842523</v>
       </c>
       <c r="U45" t="n">
-        <v>0.06994718178741881</v>
+        <v>0.06994718178741882</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,16 +34517,16 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.8913487864932272</v>
+        <v>0.8913487864932274</v>
       </c>
       <c r="H46" t="n">
-        <v>7.924901029003426</v>
+        <v>7.924901029003427</v>
       </c>
       <c r="I46" t="n">
         <v>26.80528896108724</v>
       </c>
       <c r="J46" t="n">
-        <v>63.01835920507116</v>
+        <v>63.01835920507117</v>
       </c>
       <c r="K46" t="n">
         <v>103.5585226489404</v>
@@ -34547,13 +34547,13 @@
         <v>107.8045841409626</v>
       </c>
       <c r="Q46" t="n">
-        <v>74.63830611262833</v>
+        <v>74.63830611262834</v>
       </c>
       <c r="R46" t="n">
         <v>40.07828270905001</v>
       </c>
       <c r="S46" t="n">
-        <v>15.53377839734105</v>
+        <v>15.53377839734106</v>
       </c>
       <c r="T46" t="n">
         <v>3.80849026956197</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>42.06012558095523</v>
+        <v>42.06012558095527</v>
       </c>
       <c r="J11" t="n">
-        <v>139.2334515011801</v>
+        <v>139.2334515011802</v>
       </c>
       <c r="K11" t="n">
-        <v>217.0031433876724</v>
+        <v>217.0031433876726</v>
       </c>
       <c r="L11" t="n">
-        <v>275.2686954786178</v>
+        <v>275.268695478618</v>
       </c>
       <c r="M11" t="n">
-        <v>311.4877285664817</v>
+        <v>311.4877285664819</v>
       </c>
       <c r="N11" t="n">
-        <v>317.2852426969607</v>
+        <v>317.2852426969609</v>
       </c>
       <c r="O11" t="n">
-        <v>297.4145888894178</v>
+        <v>297.414588889418</v>
       </c>
       <c r="P11" t="n">
-        <v>248.1734276171331</v>
+        <v>248.1734276171333</v>
       </c>
       <c r="Q11" t="n">
-        <v>178.4607659550236</v>
+        <v>178.4607659550238</v>
       </c>
       <c r="R11" t="n">
-        <v>89.79009951709446</v>
+        <v>89.79009951709455</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>20.43330505208249</v>
+        <v>20.43330505208251</v>
       </c>
       <c r="J12" t="n">
-        <v>79.83770185885251</v>
+        <v>344.9308271163654</v>
       </c>
       <c r="K12" t="n">
-        <v>149.2837922911598</v>
+        <v>149.2837922911599</v>
       </c>
       <c r="L12" t="n">
-        <v>208.3339289115148</v>
+        <v>208.333928911515</v>
       </c>
       <c r="M12" t="n">
-        <v>246.2931322782841</v>
+        <v>246.2931322782843</v>
       </c>
       <c r="N12" t="n">
-        <v>255.1768339739347</v>
+        <v>255.1768339739349</v>
       </c>
       <c r="O12" t="n">
-        <v>229.7897616392515</v>
+        <v>229.7897616392516</v>
       </c>
       <c r="P12" t="n">
-        <v>181.2531855058806</v>
+        <v>181.2531855058807</v>
       </c>
       <c r="Q12" t="n">
-        <v>378.0622722179379</v>
+        <v>112.969146960424</v>
       </c>
       <c r="R12" t="n">
-        <v>42.33856763136922</v>
+        <v>42.33856763136924</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>42.38160322116927</v>
+        <v>121.0904079163419</v>
       </c>
       <c r="K13" t="n">
-        <v>82.59386819622834</v>
+        <v>332.3742814427153</v>
       </c>
       <c r="L13" t="n">
-        <v>490.7912967507201</v>
+        <v>490.7912967507202</v>
       </c>
       <c r="M13" t="n">
-        <v>534.4427286986307</v>
+        <v>117.1475339767207</v>
       </c>
       <c r="N13" t="n">
-        <v>517.7052302862629</v>
+        <v>115.6517728702224</v>
       </c>
       <c r="O13" t="n">
-        <v>312.8200152067071</v>
+        <v>334.8615686442041</v>
       </c>
       <c r="P13" t="n">
-        <v>85.42378348297612</v>
+        <v>401.3391416378324</v>
       </c>
       <c r="Q13" t="n">
-        <v>50.01874334784335</v>
+        <v>202.9212659517818</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35807,25 +35807,25 @@
         <v>121.0904079163419</v>
       </c>
       <c r="K16" t="n">
-        <v>277.4916102731432</v>
+        <v>332.3742814427153</v>
       </c>
       <c r="L16" t="n">
-        <v>110.6004951434828</v>
+        <v>340.6464542117584</v>
       </c>
       <c r="M16" t="n">
-        <v>534.4427286986307</v>
+        <v>117.1475339767207</v>
       </c>
       <c r="N16" t="n">
-        <v>517.705230286263</v>
+        <v>115.6517728702224</v>
       </c>
       <c r="O16" t="n">
-        <v>103.4889118870001</v>
+        <v>485.006411183165</v>
       </c>
       <c r="P16" t="n">
         <v>401.3391416378323</v>
       </c>
       <c r="Q16" t="n">
-        <v>50.0187433478434</v>
+        <v>202.9212659517818</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,7 +35880,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>42.06012558095526</v>
+        <v>42.06012558095524</v>
       </c>
       <c r="J17" t="n">
         <v>139.2334515011802</v>
@@ -35889,22 +35889,22 @@
         <v>217.0031433876725</v>
       </c>
       <c r="L17" t="n">
-        <v>275.268695478618</v>
+        <v>275.2686954786179</v>
       </c>
       <c r="M17" t="n">
         <v>311.4877285664818</v>
       </c>
       <c r="N17" t="n">
-        <v>317.2852426969609</v>
+        <v>317.2852426969608</v>
       </c>
       <c r="O17" t="n">
         <v>297.4145888894179</v>
       </c>
       <c r="P17" t="n">
-        <v>248.1734276171333</v>
+        <v>248.1734276171332</v>
       </c>
       <c r="Q17" t="n">
-        <v>178.4607659550238</v>
+        <v>178.4607659550237</v>
       </c>
       <c r="R17" t="n">
         <v>89.79009951709452</v>
@@ -35959,16 +35959,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>44.12755337977123</v>
+        <v>20.4333050520825</v>
       </c>
       <c r="J18" t="n">
-        <v>79.83770185885255</v>
+        <v>344.9308271163658</v>
       </c>
       <c r="K18" t="n">
         <v>149.2837922911598</v>
       </c>
       <c r="L18" t="n">
-        <v>343.2120984828486</v>
+        <v>208.3339289115149</v>
       </c>
       <c r="M18" t="n">
         <v>246.2931322782842</v>
@@ -35977,16 +35977,16 @@
         <v>255.1768339739348</v>
       </c>
       <c r="O18" t="n">
-        <v>229.7897616392516</v>
+        <v>229.7897616392515</v>
       </c>
       <c r="P18" t="n">
-        <v>181.2531855058807</v>
+        <v>181.2531855058806</v>
       </c>
       <c r="Q18" t="n">
-        <v>112.969146960424</v>
+        <v>112.9691469604239</v>
       </c>
       <c r="R18" t="n">
-        <v>148.85927498986</v>
+        <v>42.33856763136923</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>121.0904079163419</v>
+        <v>42.3816032211693</v>
       </c>
       <c r="K19" t="n">
         <v>332.3742814427153</v>
       </c>
       <c r="L19" t="n">
-        <v>490.7912967507202</v>
+        <v>490.7912967507201</v>
       </c>
       <c r="M19" t="n">
-        <v>348.5201907339243</v>
+        <v>117.1475339767207</v>
       </c>
       <c r="N19" t="n">
-        <v>115.6517728702224</v>
+        <v>197.1182576303726</v>
       </c>
       <c r="O19" t="n">
-        <v>103.4889118870001</v>
+        <v>485.006411183165</v>
       </c>
       <c r="P19" t="n">
         <v>401.3391416378323</v>
       </c>
       <c r="Q19" t="n">
-        <v>202.9212659517818</v>
+        <v>50.01874334784338</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36199,7 +36199,7 @@
         <v>44.12755337977123</v>
       </c>
       <c r="J21" t="n">
-        <v>79.83770185885255</v>
+        <v>214.7158714301862</v>
       </c>
       <c r="K21" t="n">
         <v>149.2837922911598</v>
@@ -36217,13 +36217,13 @@
         <v>229.7897616392516</v>
       </c>
       <c r="P21" t="n">
-        <v>422.6520624357051</v>
+        <v>181.2531855058807</v>
       </c>
       <c r="Q21" t="n">
         <v>112.969146960424</v>
       </c>
       <c r="R21" t="n">
-        <v>42.33856763136924</v>
+        <v>148.85927498986</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36281,16 +36281,16 @@
         <v>42.3816032211693</v>
       </c>
       <c r="K22" t="n">
-        <v>82.59386819622839</v>
+        <v>332.3742814427153</v>
       </c>
       <c r="L22" t="n">
-        <v>110.6004951434828</v>
+        <v>490.7912967507202</v>
       </c>
       <c r="M22" t="n">
-        <v>534.4427286986308</v>
+        <v>117.1475339767207</v>
       </c>
       <c r="N22" t="n">
-        <v>409.794277762186</v>
+        <v>197.1182576303715</v>
       </c>
       <c r="O22" t="n">
         <v>485.006411183165</v>
@@ -36378,7 +36378,7 @@
         <v>248.1734276171332</v>
       </c>
       <c r="Q23" t="n">
-        <v>486.0168159676753</v>
+        <v>486.0168159676748</v>
       </c>
       <c r="R23" t="n">
         <v>243.5665220198734</v>
@@ -36433,10 +36433,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>20.4333050520825</v>
+        <v>44.12755337977123</v>
       </c>
       <c r="J24" t="n">
-        <v>79.83770185885254</v>
+        <v>79.83770185885255</v>
       </c>
       <c r="K24" t="n">
         <v>149.2837922911598</v>
@@ -36448,10 +36448,10 @@
         <v>246.2931322782842</v>
       </c>
       <c r="N24" t="n">
-        <v>255.1768339739347</v>
+        <v>255.1768339739348</v>
       </c>
       <c r="O24" t="n">
-        <v>494.8828868967648</v>
+        <v>364.6679312105853</v>
       </c>
       <c r="P24" t="n">
         <v>181.2531855058806</v>
@@ -36460,7 +36460,7 @@
         <v>112.9691469604239</v>
       </c>
       <c r="R24" t="n">
-        <v>42.33856763136923</v>
+        <v>148.85927498986</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36536,7 +36536,7 @@
         <v>401.3391416378323</v>
       </c>
       <c r="Q25" t="n">
-        <v>90.02891148676109</v>
+        <v>90.02891148676062</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,7 +36594,7 @@
         <v>42.06012558095524</v>
       </c>
       <c r="J26" t="n">
-        <v>139.2334515011802</v>
+        <v>534.9195310038328</v>
       </c>
       <c r="K26" t="n">
         <v>217.0031433876725</v>
@@ -36606,19 +36606,19 @@
         <v>311.4877285664818</v>
       </c>
       <c r="N26" t="n">
-        <v>671.5935838126526</v>
+        <v>317.2852426969608</v>
       </c>
       <c r="O26" t="n">
         <v>297.4145888894179</v>
       </c>
       <c r="P26" t="n">
-        <v>750.8836385195242</v>
+        <v>248.1734276171332</v>
       </c>
       <c r="Q26" t="n">
-        <v>178.4607659550237</v>
+        <v>486.0168159676748</v>
       </c>
       <c r="R26" t="n">
-        <v>89.79009951709452</v>
+        <v>243.5665220198734</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,10 +36670,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>20.4333050520825</v>
+        <v>44.12755337977123</v>
       </c>
       <c r="J27" t="n">
-        <v>79.83770185885255</v>
+        <v>214.7158714301862</v>
       </c>
       <c r="K27" t="n">
         <v>149.2837922911598</v>
@@ -36685,7 +36685,7 @@
         <v>246.2931322782842</v>
       </c>
       <c r="N27" t="n">
-        <v>520.269959231448</v>
+        <v>255.1768339739348</v>
       </c>
       <c r="O27" t="n">
         <v>229.7897616392515</v>
@@ -36697,7 +36697,7 @@
         <v>112.9691469604239</v>
       </c>
       <c r="R27" t="n">
-        <v>42.33856763136923</v>
+        <v>148.85927498986</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36831,7 +36831,7 @@
         <v>42.06012558095524</v>
       </c>
       <c r="J29" t="n">
-        <v>139.2334515011802</v>
+        <v>534.9195310038328</v>
       </c>
       <c r="K29" t="n">
         <v>217.0031433876725</v>
@@ -36849,10 +36849,10 @@
         <v>297.4145888894179</v>
       </c>
       <c r="P29" t="n">
-        <v>750.8836385195242</v>
+        <v>709.5059001325634</v>
       </c>
       <c r="Q29" t="n">
-        <v>532.7691070707159</v>
+        <v>178.4607659550237</v>
       </c>
       <c r="R29" t="n">
         <v>89.79009951709452</v>
@@ -36907,13 +36907,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>20.4333050520825</v>
+        <v>44.12755337977123</v>
       </c>
       <c r="J30" t="n">
-        <v>79.83770185885255</v>
+        <v>214.7158714301862</v>
       </c>
       <c r="K30" t="n">
-        <v>414.3769175486729</v>
+        <v>149.2837922911598</v>
       </c>
       <c r="L30" t="n">
         <v>208.3339289115149</v>
@@ -36934,7 +36934,7 @@
         <v>112.9691469604239</v>
       </c>
       <c r="R30" t="n">
-        <v>42.33856763136923</v>
+        <v>148.85927498986</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36998,7 +36998,7 @@
         <v>490.7912967507201</v>
       </c>
       <c r="M31" t="n">
-        <v>534.8601405048234</v>
+        <v>500.6765907349743</v>
       </c>
       <c r="N31" t="n">
         <v>517.7052302862629</v>
@@ -37010,7 +37010,7 @@
         <v>401.3391416378323</v>
       </c>
       <c r="Q31" t="n">
-        <v>168.7377161819327</v>
+        <v>202.9212659517818</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37147,13 +37147,13 @@
         <v>44.12755337977123</v>
       </c>
       <c r="J33" t="n">
-        <v>79.83770185885255</v>
+        <v>214.7158714301862</v>
       </c>
       <c r="K33" t="n">
         <v>149.2837922911598</v>
       </c>
       <c r="L33" t="n">
-        <v>343.2120984828485</v>
+        <v>208.3339289115149</v>
       </c>
       <c r="M33" t="n">
         <v>246.2931322782842</v>
@@ -37235,7 +37235,7 @@
         <v>490.7912967507201</v>
       </c>
       <c r="M34" t="n">
-        <v>534.8601405048234</v>
+        <v>421.9677860398018</v>
       </c>
       <c r="N34" t="n">
         <v>517.7052302862629</v>
@@ -37247,7 +37247,7 @@
         <v>401.3391416378323</v>
       </c>
       <c r="Q34" t="n">
-        <v>90.02891148676062</v>
+        <v>202.9212659517818</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37329,7 +37329,7 @@
         <v>178.4607659550237</v>
       </c>
       <c r="R35" t="n">
-        <v>89.79009951709541</v>
+        <v>89.79009951709452</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,10 +37381,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>20.4333050520825</v>
+        <v>44.12755337977123</v>
       </c>
       <c r="J36" t="n">
-        <v>344.9308271163658</v>
+        <v>214.7158714301863</v>
       </c>
       <c r="K36" t="n">
         <v>149.2837922911598</v>
@@ -37408,7 +37408,7 @@
         <v>112.9691469604239</v>
       </c>
       <c r="R36" t="n">
-        <v>42.33856763136923</v>
+        <v>148.85927498986</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37469,19 +37469,19 @@
         <v>82.59386819622839</v>
       </c>
       <c r="L37" t="n">
-        <v>490.7912967507201</v>
+        <v>419.9847373413157</v>
       </c>
       <c r="M37" t="n">
-        <v>534.442728698631</v>
+        <v>117.1475339767207</v>
       </c>
       <c r="N37" t="n">
         <v>517.7052302862629</v>
       </c>
       <c r="O37" t="n">
-        <v>312.8200152067071</v>
+        <v>485.006411183165</v>
       </c>
       <c r="P37" t="n">
-        <v>85.42378348297615</v>
+        <v>401.3391416378323</v>
       </c>
       <c r="Q37" t="n">
         <v>50.01874334784338</v>
@@ -37539,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>42.06012558095524</v>
+        <v>42.06012558095526</v>
       </c>
       <c r="J38" t="n">
         <v>139.2334515011802</v>
@@ -37548,22 +37548,22 @@
         <v>217.0031433876725</v>
       </c>
       <c r="L38" t="n">
-        <v>275.2686954786179</v>
+        <v>275.268695478618</v>
       </c>
       <c r="M38" t="n">
         <v>311.4877285664818</v>
       </c>
       <c r="N38" t="n">
-        <v>317.2852426969608</v>
+        <v>317.2852426969609</v>
       </c>
       <c r="O38" t="n">
         <v>297.4145888894179</v>
       </c>
       <c r="P38" t="n">
-        <v>248.1734276171332</v>
+        <v>248.1734276171334</v>
       </c>
       <c r="Q38" t="n">
-        <v>178.4607659550237</v>
+        <v>178.4607659550238</v>
       </c>
       <c r="R38" t="n">
         <v>89.79009951709452</v>
@@ -37621,7 +37621,7 @@
         <v>44.12755337977123</v>
       </c>
       <c r="J39" t="n">
-        <v>79.83770185885255</v>
+        <v>214.7158714301862</v>
       </c>
       <c r="K39" t="n">
         <v>149.2837922911598</v>
@@ -37633,19 +37633,19 @@
         <v>246.2931322782842</v>
       </c>
       <c r="N39" t="n">
-        <v>496.5757109037593</v>
+        <v>255.1768339739348</v>
       </c>
       <c r="O39" t="n">
-        <v>229.7897616392515</v>
+        <v>229.7897616392516</v>
       </c>
       <c r="P39" t="n">
-        <v>181.2531855058806</v>
+        <v>181.2531855058807</v>
       </c>
       <c r="Q39" t="n">
-        <v>112.9691469604239</v>
+        <v>112.969146960424</v>
       </c>
       <c r="R39" t="n">
-        <v>42.33856763136923</v>
+        <v>148.85927498986</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>121.0904079163419</v>
+        <v>42.3816032211693</v>
       </c>
       <c r="K40" t="n">
-        <v>332.3742814427153</v>
+        <v>82.59386819622839</v>
       </c>
       <c r="L40" t="n">
-        <v>218.7306595248298</v>
+        <v>110.6004951434828</v>
       </c>
       <c r="M40" t="n">
-        <v>534.442728698631</v>
+        <v>534.4427286986308</v>
       </c>
       <c r="N40" t="n">
-        <v>517.7052302862629</v>
+        <v>517.705230286263</v>
       </c>
       <c r="O40" t="n">
-        <v>103.4889118870001</v>
+        <v>485.006411183165</v>
       </c>
       <c r="P40" t="n">
-        <v>85.42378348297615</v>
+        <v>293.4281891137553</v>
       </c>
       <c r="Q40" t="n">
-        <v>202.9212659517818</v>
+        <v>50.0187433478434</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37776,31 +37776,31 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>42.06012558095524</v>
+        <v>42.06012558095526</v>
       </c>
       <c r="J41" t="n">
-        <v>139.233451501181</v>
+        <v>139.2334515011802</v>
       </c>
       <c r="K41" t="n">
         <v>217.0031433876725</v>
       </c>
       <c r="L41" t="n">
-        <v>275.2686954786179</v>
+        <v>275.268695478618</v>
       </c>
       <c r="M41" t="n">
         <v>311.4877285664818</v>
       </c>
       <c r="N41" t="n">
-        <v>317.2852426969608</v>
+        <v>317.2852426969609</v>
       </c>
       <c r="O41" t="n">
         <v>297.4145888894179</v>
       </c>
       <c r="P41" t="n">
-        <v>248.1734276171332</v>
+        <v>248.1734276171333</v>
       </c>
       <c r="Q41" t="n">
-        <v>178.4607659550237</v>
+        <v>178.4607659550238</v>
       </c>
       <c r="R41" t="n">
         <v>89.79009951709452</v>
@@ -37858,10 +37858,10 @@
         <v>44.12755337977123</v>
       </c>
       <c r="J42" t="n">
-        <v>79.83770185885255</v>
+        <v>214.7158714301862</v>
       </c>
       <c r="K42" t="n">
-        <v>390.6826692209843</v>
+        <v>149.2837922911598</v>
       </c>
       <c r="L42" t="n">
         <v>208.3339289115149</v>
@@ -37873,16 +37873,16 @@
         <v>255.1768339739348</v>
       </c>
       <c r="O42" t="n">
-        <v>229.7897616392515</v>
+        <v>229.7897616392516</v>
       </c>
       <c r="P42" t="n">
-        <v>181.2531855058806</v>
+        <v>181.2531855058807</v>
       </c>
       <c r="Q42" t="n">
-        <v>112.9691469604239</v>
+        <v>112.969146960424</v>
       </c>
       <c r="R42" t="n">
-        <v>42.33856763136923</v>
+        <v>148.85927498986</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,25 +37937,25 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>119.346142056814</v>
+        <v>121.0904079163419</v>
       </c>
       <c r="K43" t="n">
-        <v>82.59386819622839</v>
+        <v>96.09133964256944</v>
       </c>
       <c r="L43" t="n">
-        <v>490.7912967507201</v>
+        <v>490.7912967507202</v>
       </c>
       <c r="M43" t="n">
-        <v>534.442728698631</v>
+        <v>117.1475339767207</v>
       </c>
       <c r="N43" t="n">
-        <v>115.6517728702224</v>
+        <v>517.705230286263</v>
       </c>
       <c r="O43" t="n">
         <v>485.006411183165</v>
       </c>
       <c r="P43" t="n">
-        <v>85.42378348297615</v>
+        <v>85.42378348297616</v>
       </c>
       <c r="Q43" t="n">
         <v>202.9212659517818</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>42.06012558095524</v>
+        <v>42.06012558095526</v>
       </c>
       <c r="J44" t="n">
-        <v>139.233451501181</v>
+        <v>139.2334515011802</v>
       </c>
       <c r="K44" t="n">
         <v>217.0031433876725</v>
       </c>
       <c r="L44" t="n">
-        <v>275.2686954786179</v>
+        <v>275.268695478618</v>
       </c>
       <c r="M44" t="n">
         <v>311.4877285664818</v>
       </c>
       <c r="N44" t="n">
-        <v>317.2852426969608</v>
+        <v>317.2852426969609</v>
       </c>
       <c r="O44" t="n">
         <v>297.4145888894179</v>
       </c>
       <c r="P44" t="n">
-        <v>248.1734276171332</v>
+        <v>248.1734276171333</v>
       </c>
       <c r="Q44" t="n">
-        <v>178.4607659550237</v>
+        <v>178.4607659550238</v>
       </c>
       <c r="R44" t="n">
-        <v>89.79009951709452</v>
+        <v>89.79009951709449</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,7 +38095,7 @@
         <v>20.4333050520825</v>
       </c>
       <c r="J45" t="n">
-        <v>344.9308271163658</v>
+        <v>344.9308271163657</v>
       </c>
       <c r="K45" t="n">
         <v>149.2837922911598</v>
@@ -38110,16 +38110,16 @@
         <v>255.1768339739348</v>
       </c>
       <c r="O45" t="n">
-        <v>229.7897616392515</v>
+        <v>229.7897616392516</v>
       </c>
       <c r="P45" t="n">
-        <v>181.2531855058806</v>
+        <v>181.2531855058807</v>
       </c>
       <c r="Q45" t="n">
-        <v>112.9691469604239</v>
+        <v>112.969146960424</v>
       </c>
       <c r="R45" t="n">
-        <v>42.33856763136923</v>
+        <v>42.33856763136924</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38180,16 +38180,16 @@
         <v>332.3742814427153</v>
       </c>
       <c r="L46" t="n">
-        <v>490.7912967507201</v>
+        <v>490.7912967507202</v>
       </c>
       <c r="M46" t="n">
-        <v>348.520190733925</v>
+        <v>117.1475339767207</v>
       </c>
       <c r="N46" t="n">
         <v>115.6517728702224</v>
       </c>
       <c r="O46" t="n">
-        <v>103.4889118870001</v>
+        <v>334.8615686442037</v>
       </c>
       <c r="P46" t="n">
         <v>401.3391416378323</v>
